--- a/data/List of well-known Names used to identify accounts.xlsx
+++ b/data/List of well-known Names used to identify accounts.xlsx
@@ -7588,24 +7588,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H872"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C876" sqref="C876"/>
+      <selection activeCell="G875" sqref="G875"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>492</v>
       </c>
@@ -7631,7 +7632,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -7654,7 +7655,7 @@
         <v>288308.39608600002</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -7680,7 +7681,7 @@
         <v>20.036442999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -7706,7 +7707,7 @@
         <v>20.768868999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -7732,7 +7733,7 @@
         <v>78.899130999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -7758,7 +7759,7 @@
         <v>127.381958</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -7784,7 +7785,7 @@
         <v>974.19971199999998</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -7810,7 +7811,7 @@
         <v>20.553349000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -7836,7 +7837,7 @@
         <v>20.861378999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -7862,7 +7863,7 @@
         <v>20.501097999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -7888,7 +7889,7 @@
         <v>21.469725</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -7914,7 +7915,7 @@
         <v>20.300802999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -7940,7 +7941,7 @@
         <v>20.932158000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -7966,7 +7967,7 @@
         <v>20.939329000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -7992,7 +7993,7 @@
         <v>127.024243</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -8012,7 +8013,7 @@
         <v>12271.344601000001</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -8035,7 +8036,7 @@
         <v>38.568579</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -8058,7 +8059,7 @@
         <v>4662.2936579999996</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -8081,7 +8082,7 @@
         <v>65.317764999999994</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -8104,7 +8105,7 @@
         <v>450.72771799999998</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -8127,7 +8128,7 @@
         <v>557.21547799999996</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -8150,7 +8151,7 @@
         <v>1109.727171</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -8173,7 +8174,7 @@
         <v>88.060924</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -8196,7 +8197,7 @@
         <v>76.78828</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -8219,7 +8220,7 @@
         <v>197.13113200000001</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -8242,7 +8243,7 @@
         <v>290.91794299999998</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -8265,7 +8266,7 @@
         <v>27507.589694999999</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -8288,7 +8289,7 @@
         <v>1432407.6883330001</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -8308,7 +8309,7 @@
         <v>686.92274799999996</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -8331,7 +8332,7 @@
         <v>127673.068294</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -8354,7 +8355,7 @@
         <v>12738.994053</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -8377,7 +8378,7 @@
         <v>7797.509857</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -8397,7 +8398,7 @@
         <v>24.288353000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -8420,7 +8421,7 @@
         <v>21480.991589000001</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -8443,7 +8444,7 @@
         <v>19803.186150000001</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -8466,7 +8467,7 @@
         <v>26.012858999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -8489,7 +8490,7 @@
         <v>1651.467318</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -8512,7 +8513,7 @@
         <v>290185.25144199998</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -8535,7 +8536,7 @@
         <v>52.110906</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -8558,7 +8559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -8581,7 +8582,7 @@
         <v>261617.24714200001</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -8607,7 +8608,7 @@
         <v>20.086001</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -8633,7 +8634,7 @@
         <v>20.069880000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -8659,7 +8660,7 @@
         <v>20.014605</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -8685,7 +8686,7 @@
         <v>20.000309999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -8711,7 +8712,7 @@
         <v>20.012609000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -8734,7 +8735,7 @@
         <v>289.65675299999998</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -8757,7 +8758,7 @@
         <v>631.53151400000002</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -8780,7 +8781,7 @@
         <v>20.006907999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -8806,7 +8807,7 @@
         <v>2296068.0803689999</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -8832,7 +8833,7 @@
         <v>20.99999</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -8855,7 +8856,7 @@
         <v>9192.3349249999992</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -8881,7 +8882,7 @@
         <v>20.099976000000002</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -8907,7 +8908,7 @@
         <v>4906.2085189999998</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -8930,7 +8931,7 @@
         <v>177458.78004099999</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -8953,7 +8954,7 @@
         <v>1386.0280110000001</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -8976,7 +8977,7 @@
         <v>400.445808</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -8996,7 +8997,7 @@
         <v>1064.5320180000001</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -9022,7 +9023,7 @@
         <v>276096.07807300001</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -9048,7 +9049,7 @@
         <v>79021.068868999995</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -9074,7 +9075,7 @@
         <v>89652.643872999994</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -9100,7 +9101,7 @@
         <v>463437.748242</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -9123,7 +9124,7 @@
         <v>20.99999</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -9146,7 +9147,7 @@
         <v>82399.868084999995</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -9169,7 +9170,7 @@
         <v>66830.863677000001</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -9195,7 +9196,7 @@
         <v>627174.68967800005</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -9221,7 +9222,7 @@
         <v>610256.60837799998</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -9241,7 +9242,7 @@
         <v>484.56572799999998</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -9267,7 +9268,7 @@
         <v>962591.74315800006</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -9293,7 +9294,7 @@
         <v>705.01444700000002</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -9313,7 +9314,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -9336,7 +9337,7 @@
         <v>2665.6598549999999</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -9362,7 +9363,7 @@
         <v>454.29998999999998</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -9388,7 +9389,7 @@
         <v>41.311292999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -9414,7 +9415,7 @@
         <v>130880.068118</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -9440,7 +9441,7 @@
         <v>4320.0771119999999</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -9463,7 +9464,7 @@
         <v>20.452725999999998</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -9486,7 +9487,7 @@
         <v>301.680791</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -9512,7 +9513,7 @@
         <v>27115.476244000001</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -9538,7 +9539,7 @@
         <v>23576.905617</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -9564,7 +9565,7 @@
         <v>35.531007000000002</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -9590,7 +9591,7 @@
         <v>99.9</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -9616,7 +9617,7 @@
         <v>99.989624000000006</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -9639,7 +9640,7 @@
         <v>459.8999</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -9665,7 +9666,7 @@
         <v>49.83</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -9691,7 +9692,7 @@
         <v>148793734.579386</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -9717,7 +9718,7 @@
         <v>1803665.7861870001</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -9740,7 +9741,7 @@
         <v>372819.12610300002</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -9763,7 +9764,7 @@
         <v>126209.476998</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -9786,7 +9787,7 @@
         <v>329416.093184</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -9812,7 +9813,7 @@
         <v>47879.671046000003</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -9838,7 +9839,7 @@
         <v>79031.350453000006</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -9861,7 +9862,7 @@
         <v>139023.38402299999</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -9881,7 +9882,7 @@
         <v>47.718843</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -9904,7 +9905,7 @@
         <v>26.149903999999999</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -9930,7 +9931,7 @@
         <v>99.999979999999994</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -9956,7 +9957,7 @@
         <v>69.596609000000001</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -9976,7 +9977,7 @@
         <v>235.74225999999999</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -10002,7 +10003,7 @@
         <v>20.019936000000001</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -10028,7 +10029,7 @@
         <v>283.247682</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -10051,7 +10052,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -10074,7 +10075,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -10097,7 +10098,7 @@
         <v>468.90705300000002</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -10120,7 +10121,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -10143,7 +10144,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -10166,7 +10167,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -10192,7 +10193,7 @@
         <v>41834.718072999996</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -10218,7 +10219,7 @@
         <v>25025.361184000001</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -10238,7 +10239,7 @@
         <v>533.64938400000005</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -10261,7 +10262,7 @@
         <v>1134.218613</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -10287,7 +10288,7 @@
         <v>14199.368705000001</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -10313,7 +10314,7 @@
         <v>28.826357999999999</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -10336,7 +10337,7 @@
         <v>22.646844000000002</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -10356,7 +10357,7 @@
         <v>12955.720058000001</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -10379,7 +10380,7 @@
         <v>11029.224914</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -10402,7 +10403,7 @@
         <v>7298.0906420000001</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -10428,7 +10429,7 @@
         <v>495.653865</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -10454,7 +10455,7 @@
         <v>398250.26264500001</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -10480,7 +10481,7 @@
         <v>20.001729000000001</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -10506,7 +10507,7 @@
         <v>24.141276999999999</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -10529,7 +10530,7 @@
         <v>554914.43075399997</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -10552,7 +10553,7 @@
         <v>192.81172599999999</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -10575,7 +10576,7 @@
         <v>151155.233813</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -10601,7 +10602,7 @@
         <v>29.747150000000001</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -10624,7 +10625,7 @@
         <v>20.000001999999999</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -10647,7 +10648,7 @@
         <v>21.003208000000001</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -10673,7 +10674,7 @@
         <v>80324.358322999993</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -10699,7 +10700,7 @@
         <v>22724729.351177</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -10725,7 +10726,7 @@
         <v>20.999844</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -10751,7 +10752,7 @@
         <v>994852746.63179302</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -10777,7 +10778,7 @@
         <v>10000000.000088001</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -10803,7 +10804,7 @@
         <v>45574322.742585003</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -10829,7 +10830,7 @@
         <v>78306.699353999997</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -10855,7 +10856,7 @@
         <v>8175.0614830000004</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -10881,7 +10882,7 @@
         <v>530.45197599999995</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -10904,7 +10905,7 @@
         <v>1352.459192</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -10930,7 +10931,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -10956,7 +10957,7 @@
         <v>967240.54185299994</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -10979,7 +10980,7 @@
         <v>1662339.35839</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -10999,7 +11000,7 @@
         <v>19652.800404000001</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -11022,7 +11023,7 @@
         <v>72.825917000000004</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -11045,7 +11046,7 @@
         <v>480659.719102</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -11071,7 +11072,7 @@
         <v>295880.906625</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -11091,7 +11092,7 @@
         <v>111.12027999999999</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -11114,7 +11115,7 @@
         <v>18452.950207999998</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -11140,7 +11141,7 @@
         <v>149.98000999999999</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -11166,7 +11167,7 @@
         <v>42901.622276000002</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -11192,7 +11193,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -11215,7 +11216,7 @@
         <v>74788.104290999996</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -11238,7 +11239,7 @@
         <v>1348958.0943430001</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -11264,7 +11265,7 @@
         <v>24.999987999999998</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -11290,7 +11291,7 @@
         <v>94.194956000000005</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -11316,7 +11317,7 @@
         <v>5811.3333979999998</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -11342,7 +11343,7 @@
         <v>98444.205361</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -11365,7 +11366,7 @@
         <v>97.237793999999994</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -11388,7 +11389,7 @@
         <v>170.56297599999999</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -11411,7 +11412,7 @@
         <v>160.464077</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -11434,7 +11435,7 @@
         <v>27203.067717000002</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -11460,7 +11461,7 @@
         <v>180255.18479500001</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -11486,7 +11487,7 @@
         <v>3278.5019149999998</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -11506,7 +11507,7 @@
         <v>7250931.6493079998</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -11529,7 +11530,7 @@
         <v>3110260.960066</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -11552,7 +11553,7 @@
         <v>907498.02864300006</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -11575,7 +11576,7 @@
         <v>390759.37879799999</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -11598,7 +11599,7 @@
         <v>24.149419999999999</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -11621,7 +11622,7 @@
         <v>3640650.2487329999</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -11644,7 +11645,7 @@
         <v>248.513993</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -11667,7 +11668,7 @@
         <v>20.007436999999999</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -11693,7 +11694,7 @@
         <v>9994472.3573640008</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -11719,7 +11720,7 @@
         <v>289950974.95139998</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -11742,7 +11743,7 @@
         <v>79.271153999999996</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -11765,7 +11766,7 @@
         <v>303902.61322</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -11791,7 +11792,7 @@
         <v>540.24313500000005</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -11817,7 +11818,7 @@
         <v>285.21110900000002</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -11843,7 +11844,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -11869,7 +11870,7 @@
         <v>130571.230121</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -11895,7 +11896,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -11921,7 +11922,7 @@
         <v>288634104.44556803</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -11947,7 +11948,7 @@
         <v>44.999963999999999</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -11973,7 +11974,7 @@
         <v>700000001</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -11999,7 +12000,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -12025,7 +12026,7 @@
         <v>24.999987999999998</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -12051,7 +12052,7 @@
         <v>5120038.1431759996</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -12077,7 +12078,7 @@
         <v>2151309.1346109998</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -12103,7 +12104,7 @@
         <v>45.138705999999999</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -12129,7 +12130,7 @@
         <v>826.51343199999997</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -12152,7 +12153,7 @@
         <v>4669675.6947010001</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -12175,7 +12176,7 @@
         <v>6378290.0272310004</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -12198,7 +12199,7 @@
         <v>196.74298099999999</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -12221,7 +12222,7 @@
         <v>109330.613423</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -12244,7 +12245,7 @@
         <v>89.176114999999996</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -12270,7 +12271,7 @@
         <v>51.365949999999998</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -12296,7 +12297,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -12319,7 +12320,7 @@
         <v>42317.560017000003</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -12345,7 +12346,7 @@
         <v>311074.72609800001</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -12371,7 +12372,7 @@
         <v>111511.777459</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -12394,7 +12395,7 @@
         <v>19.999987999999998</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -12420,7 +12421,7 @@
         <v>22.189976000000001</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -12446,7 +12447,7 @@
         <v>3469956.9468990001</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -12472,7 +12473,7 @@
         <v>137.31700799999999</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -12498,7 +12499,7 @@
         <v>97298746.963354006</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -12521,7 +12522,7 @@
         <v>20.122471000000001</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -12544,7 +12545,7 @@
         <v>35.809004000000002</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -12567,7 +12568,7 @@
         <v>10039.068853000001</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -12590,7 +12591,7 @@
         <v>517346.13701300003</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -12616,7 +12617,7 @@
         <v>51271791.738664001</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -12642,7 +12643,7 @@
         <v>11618.557274999999</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -12668,7 +12669,7 @@
         <v>3297037.8716489999</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -12688,7 +12689,7 @@
         <v>114861.65255100001</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -12714,7 +12715,7 @@
         <v>23856328.681779999</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -12740,7 +12741,7 @@
         <v>26763870.501230001</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -12766,7 +12767,7 @@
         <v>1679.236134</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -12789,7 +12790,7 @@
         <v>11853251.606938001</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -12815,7 +12816,7 @@
         <v>400000020.98338598</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -12838,7 +12839,7 @@
         <v>54.096381999999998</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -12864,7 +12865,7 @@
         <v>20.059097000000001</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -12890,7 +12891,7 @@
         <v>20.329183</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -12916,7 +12917,7 @@
         <v>22.290597000000002</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -12939,7 +12940,7 @@
         <v>1454.7297840000001</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -12962,7 +12963,7 @@
         <v>2361.0783200000001</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -12985,7 +12986,7 @@
         <v>214.44323900000001</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -13008,7 +13009,7 @@
         <v>269.32173399999999</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -13031,7 +13032,7 @@
         <v>666.09756200000004</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -13054,7 +13055,7 @@
         <v>576.50877100000002</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -13077,7 +13078,7 @@
         <v>77.518244999999993</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -13100,7 +13101,7 @@
         <v>435.19300399999997</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -13123,7 +13124,7 @@
         <v>78.465906000000004</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -13146,7 +13147,7 @@
         <v>196.89163199999999</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -13169,7 +13170,7 @@
         <v>155.57876200000001</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -13192,7 +13193,7 @@
         <v>208.563007</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -13218,7 +13219,7 @@
         <v>1003.654672</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -13244,7 +13245,7 @@
         <v>11257.426156</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -13270,7 +13271,7 @@
         <v>8792.0027929999997</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -13293,7 +13294,7 @@
         <v>24.179904000000001</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -13316,7 +13317,7 @@
         <v>163079.719748</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -13339,7 +13340,7 @@
         <v>20.000184000000001</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -13365,7 +13366,7 @@
         <v>2793893.931837</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -13391,7 +13392,7 @@
         <v>5345315.4453090001</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -13417,7 +13418,7 @@
         <v>46.31006</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -13443,7 +13444,7 @@
         <v>114235.092215</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -13469,7 +13470,7 @@
         <v>1675097.0563449999</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -13495,7 +13496,7 @@
         <v>20.965423000000001</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -13518,7 +13519,7 @@
         <v>129535.576931</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -13541,7 +13542,7 @@
         <v>20.653979</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -13564,7 +13565,7 @@
         <v>3599735.0452569998</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -13590,7 +13591,7 @@
         <v>1684.0287740000001</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -13616,7 +13617,7 @@
         <v>1948.1539969999999</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -13639,7 +13640,7 @@
         <v>76009.007545</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -13665,7 +13666,7 @@
         <v>20.037528999999999</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -13688,7 +13689,7 @@
         <v>21.635415999999999</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -13711,7 +13712,7 @@
         <v>24579.009548999999</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -13734,7 +13735,7 @@
         <v>123749.162908</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -13760,7 +13761,7 @@
         <v>20.999988999999999</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -13786,7 +13787,7 @@
         <v>29.749981999999999</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -13809,7 +13810,7 @@
         <v>177.94787199999999</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -13832,7 +13833,7 @@
         <v>1170613.054124</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -13855,7 +13856,7 @@
         <v>20.325233000000001</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -13881,7 +13882,7 @@
         <v>20.205119</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -13907,7 +13908,7 @@
         <v>3386.4685629999999</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -13933,7 +13934,7 @@
         <v>45.000790000000002</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -13959,7 +13960,7 @@
         <v>45.006967000000003</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -13985,7 +13986,7 @@
         <v>1634.0297410000001</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -14008,7 +14009,7 @@
         <v>7895.4114099999997</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -14031,7 +14032,7 @@
         <v>3983.3995289999998</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -14054,7 +14055,7 @@
         <v>68763.873279000007</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -14080,7 +14081,7 @@
         <v>139.561711</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -14106,7 +14107,7 @@
         <v>21.091598000000001</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -14129,7 +14130,7 @@
         <v>56.005406999999998</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>267</v>
       </c>
@@ -14155,7 +14156,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>268</v>
       </c>
@@ -14181,7 +14182,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>269</v>
       </c>
@@ -14207,7 +14208,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>270</v>
       </c>
@@ -14233,7 +14234,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>271</v>
       </c>
@@ -14256,7 +14257,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>272</v>
       </c>
@@ -14282,7 +14283,7 @@
         <v>4024974.972085</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>273</v>
       </c>
@@ -14302,7 +14303,7 @@
         <v>204.34998300000001</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>274</v>
       </c>
@@ -14325,7 +14326,7 @@
         <v>362.85686199999998</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>275</v>
       </c>
@@ -14348,7 +14349,7 @@
         <v>301.69</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>276</v>
       </c>
@@ -14371,7 +14372,7 @@
         <v>2036.7510259999999</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>277</v>
       </c>
@@ -14397,7 +14398,7 @@
         <v>3124497.7681229999</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>278</v>
       </c>
@@ -14423,7 +14424,7 @@
         <v>687408.50401999999</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>279</v>
       </c>
@@ -14449,7 +14450,7 @@
         <v>590747.136833</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>280</v>
       </c>
@@ -14475,7 +14476,7 @@
         <v>290973.73409799999</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>281</v>
       </c>
@@ -14498,7 +14499,7 @@
         <v>569164.80999800004</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>282</v>
       </c>
@@ -14524,7 +14525,7 @@
         <v>385419.28811099997</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>283</v>
       </c>
@@ -14550,7 +14551,7 @@
         <v>24356.371944999999</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>284</v>
       </c>
@@ -14573,7 +14574,7 @@
         <v>855849.91012699995</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>285</v>
       </c>
@@ -14596,7 +14597,7 @@
         <v>1261.9724779999999</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>286</v>
       </c>
@@ -14619,7 +14620,7 @@
         <v>5218.0076909999998</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>287</v>
       </c>
@@ -14642,7 +14643,7 @@
         <v>487.29392200000001</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>288</v>
       </c>
@@ -14665,7 +14666,7 @@
         <v>302692.77112500003</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>289</v>
       </c>
@@ -14691,7 +14692,7 @@
         <v>1752.171427</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>290</v>
       </c>
@@ -14717,7 +14718,7 @@
         <v>11327.753382000001</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>291</v>
       </c>
@@ -14743,7 +14744,7 @@
         <v>85835.134535000005</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>292</v>
       </c>
@@ -14769,7 +14770,7 @@
         <v>192525.90313399999</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>293</v>
       </c>
@@ -14795,7 +14796,7 @@
         <v>5430.4651059999997</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>294</v>
       </c>
@@ -14818,7 +14819,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>295</v>
       </c>
@@ -14841,7 +14842,7 @@
         <v>31662180.088884</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>296</v>
       </c>
@@ -14864,7 +14865,7 @@
         <v>1192.1687629999999</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>297</v>
       </c>
@@ -14887,7 +14888,7 @@
         <v>9962806.832556</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>298</v>
       </c>
@@ -14910,7 +14911,7 @@
         <v>2651.7371629999998</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>299</v>
       </c>
@@ -14933,7 +14934,7 @@
         <v>80.026579999999996</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>300</v>
       </c>
@@ -14956,7 +14957,7 @@
         <v>17450684.309432</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>301</v>
       </c>
@@ -14979,7 +14980,7 @@
         <v>29224.783774</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>302</v>
       </c>
@@ -15005,7 +15006,7 @@
         <v>82.887690000000006</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>303</v>
       </c>
@@ -15031,7 +15032,7 @@
         <v>59.461874999999999</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>304</v>
       </c>
@@ -15054,7 +15055,7 @@
         <v>8288731.37598</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>305</v>
       </c>
@@ -15080,7 +15081,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>306</v>
       </c>
@@ -15106,7 +15107,7 @@
         <v>418.18552499999998</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>307</v>
       </c>
@@ -15129,7 +15130,7 @@
         <v>4910.6805320000003</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>308</v>
       </c>
@@ -15152,7 +15153,7 @@
         <v>499.995</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>309</v>
       </c>
@@ -15178,7 +15179,7 @@
         <v>24.999891999999999</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>310</v>
       </c>
@@ -15201,7 +15202,7 @@
         <v>353.58586300000002</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>311</v>
       </c>
@@ -15224,7 +15225,7 @@
         <v>19.999987999999998</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>312</v>
       </c>
@@ -15250,7 +15251,7 @@
         <v>553.61557500000004</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>313</v>
       </c>
@@ -15276,7 +15277,7 @@
         <v>7101460.4768380001</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>314</v>
       </c>
@@ -15302,7 +15303,7 @@
         <v>39445667.153972998</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>315</v>
       </c>
@@ -15328,7 +15329,7 @@
         <v>5137064.1442539999</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>316</v>
       </c>
@@ -15354,7 +15355,7 @@
         <v>4436467.4943850003</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>317</v>
       </c>
@@ -15380,7 +15381,7 @@
         <v>39.999980000000001</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>318</v>
       </c>
@@ -15406,7 +15407,7 @@
         <v>3653337.8623609999</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>319</v>
       </c>
@@ -15432,7 +15433,7 @@
         <v>12037.094028</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>320</v>
       </c>
@@ -15458,7 +15459,7 @@
         <v>20.587222000000001</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>321</v>
       </c>
@@ -15481,7 +15482,7 @@
         <v>123.620895</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>322</v>
       </c>
@@ -15507,7 +15508,7 @@
         <v>3681957.4861699999</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>323</v>
       </c>
@@ -15533,7 +15534,7 @@
         <v>1009814761.752032</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>324</v>
       </c>
@@ -15556,7 +15557,7 @@
         <v>20.962060000000001</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>325</v>
       </c>
@@ -15579,7 +15580,7 @@
         <v>3504.0312140000001</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>326</v>
       </c>
@@ -15605,7 +15606,7 @@
         <v>5588335.661475</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>327</v>
       </c>
@@ -15631,7 +15632,7 @@
         <v>106824.121021</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>328</v>
       </c>
@@ -15654,7 +15655,7 @@
         <v>170316.61384199999</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>329</v>
       </c>
@@ -15677,7 +15678,7 @@
         <v>20.760750000000002</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>330</v>
       </c>
@@ -15700,7 +15701,7 @@
         <v>404529.69167799997</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>331</v>
       </c>
@@ -15726,7 +15727,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>332</v>
       </c>
@@ -15752,7 +15753,7 @@
         <v>20.009989999999998</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>333</v>
       </c>
@@ -15778,7 +15779,7 @@
         <v>45791088.300407</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>334</v>
       </c>
@@ -15804,7 +15805,7 @@
         <v>30.000088000000002</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>335</v>
       </c>
@@ -15830,7 +15831,7 @@
         <v>69005119.585994005</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>336</v>
       </c>
@@ -15856,7 +15857,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>337</v>
       </c>
@@ -15882,7 +15883,7 @@
         <v>6540229.2325050002</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>338</v>
       </c>
@@ -15908,7 +15909,7 @@
         <v>400000.14999000001</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>339</v>
       </c>
@@ -15934,7 +15935,7 @@
         <v>14865068.028049</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>340</v>
       </c>
@@ -15957,7 +15958,7 @@
         <v>3040.3746150000002</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>341</v>
       </c>
@@ -15983,7 +15984,7 @@
         <v>12642.597535000001</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>342</v>
       </c>
@@ -16009,7 +16010,7 @@
         <v>20.567781</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>343</v>
       </c>
@@ -16029,7 +16030,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>344</v>
       </c>
@@ -16055,7 +16056,7 @@
         <v>20.034389000000001</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>345</v>
       </c>
@@ -16081,7 +16082,7 @@
         <v>29.955404000000001</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>346</v>
       </c>
@@ -16104,7 +16105,7 @@
         <v>1972.9635780000001</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>347</v>
       </c>
@@ -16127,7 +16128,7 @@
         <v>62312.718760000003</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>348</v>
       </c>
@@ -16153,7 +16154,7 @@
         <v>44.333359999999999</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>349</v>
       </c>
@@ -16176,7 +16177,7 @@
         <v>302.01613800000001</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>350</v>
       </c>
@@ -16202,7 +16203,7 @@
         <v>22.138459999999998</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>351</v>
       </c>
@@ -16228,7 +16229,7 @@
         <v>20.000008000000001</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>352</v>
       </c>
@@ -16254,7 +16255,7 @@
         <v>22982.552242999998</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>353</v>
       </c>
@@ -16280,7 +16281,7 @@
         <v>1496.2389390000001</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>354</v>
       </c>
@@ -16303,7 +16304,7 @@
         <v>224247.509089</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>355</v>
       </c>
@@ -16326,7 +16327,7 @@
         <v>618.67812300000003</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>356</v>
       </c>
@@ -16349,7 +16350,7 @@
         <v>888133.07964699995</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>357</v>
       </c>
@@ -16372,7 +16373,7 @@
         <v>21.009761000000001</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>358</v>
       </c>
@@ -16392,7 +16393,7 @@
         <v>118.27</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>359</v>
       </c>
@@ -16418,7 +16419,7 @@
         <v>1063588.747304</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>360</v>
       </c>
@@ -16444,7 +16445,7 @@
         <v>890948.90578899998</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>361</v>
       </c>
@@ -16470,7 +16471,7 @@
         <v>64734265.213967003</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>362</v>
       </c>
@@ -16490,7 +16491,7 @@
         <v>1256.659764</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>363</v>
       </c>
@@ -16516,7 +16517,7 @@
         <v>41.998820000000002</v>
       </c>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>364</v>
       </c>
@@ -16536,7 +16537,7 @@
         <v>1186.0409930000001</v>
       </c>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
         <v>365</v>
       </c>
@@ -16559,7 +16560,7 @@
         <v>20.017610000000001</v>
       </c>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <v>366</v>
       </c>
@@ -16582,7 +16583,7 @@
         <v>4100.3805320000001</v>
       </c>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <v>367</v>
       </c>
@@ -16605,7 +16606,7 @@
         <v>5705.3502200000003</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <v>368</v>
       </c>
@@ -16628,7 +16629,7 @@
         <v>2591.9481810000002</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
         <v>369</v>
       </c>
@@ -16651,7 +16652,7 @@
         <v>20.009340000000002</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <v>370</v>
       </c>
@@ -16674,7 +16675,7 @@
         <v>158.21610000000001</v>
       </c>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <v>371</v>
       </c>
@@ -16700,7 +16701,7 @@
         <v>10600.762671</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
         <v>372</v>
       </c>
@@ -16726,7 +16727,7 @@
         <v>119.04191299999999</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
         <v>373</v>
       </c>
@@ -16749,7 +16750,7 @@
         <v>109455.903936</v>
       </c>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <v>374</v>
       </c>
@@ -16772,7 +16773,7 @@
         <v>294.77566899999999</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <v>375</v>
       </c>
@@ -16795,7 +16796,7 @@
         <v>126.944326</v>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <v>376</v>
       </c>
@@ -16818,7 +16819,7 @@
         <v>358183.93298500002</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <v>377</v>
       </c>
@@ -16838,7 +16839,7 @@
         <v>30.581084000000001</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <v>378</v>
       </c>
@@ -16864,7 +16865,7 @@
         <v>20.001377999999999</v>
       </c>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <v>379</v>
       </c>
@@ -16890,7 +16891,7 @@
         <v>20.695619000000001</v>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <v>380</v>
       </c>
@@ -16916,7 +16917,7 @@
         <v>45.155667999999999</v>
       </c>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
         <v>381</v>
       </c>
@@ -16942,7 +16943,7 @@
         <v>43.763556999999999</v>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <v>382</v>
       </c>
@@ -16968,7 +16969,7 @@
         <v>38356044.872594997</v>
       </c>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
         <v>383</v>
       </c>
@@ -16991,7 +16992,7 @@
         <v>19324.376461</v>
       </c>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
         <v>384</v>
       </c>
@@ -17014,7 +17015,7 @@
         <v>1552.7065250000001</v>
       </c>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <v>385</v>
       </c>
@@ -17037,7 +17038,7 @@
         <v>20.536093000000001</v>
       </c>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
         <v>386</v>
       </c>
@@ -17060,7 +17061,7 @@
         <v>56.062468000000003</v>
       </c>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
         <v>387</v>
       </c>
@@ -17083,7 +17084,7 @@
         <v>44277.948536999997</v>
       </c>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
         <v>388</v>
       </c>
@@ -17109,7 +17110,7 @@
         <v>226211.25463400001</v>
       </c>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
         <v>389</v>
       </c>
@@ -17135,7 +17136,7 @@
         <v>80.999775999999997</v>
       </c>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
         <v>390</v>
       </c>
@@ -17161,7 +17162,7 @@
         <v>459469.64773099998</v>
       </c>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
         <v>391</v>
       </c>
@@ -17187,7 +17188,7 @@
         <v>2812010.863192</v>
       </c>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
         <v>392</v>
       </c>
@@ -17213,7 +17214,7 @@
         <v>56366.628183000001</v>
       </c>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
         <v>393</v>
       </c>
@@ -17239,7 +17240,7 @@
         <v>337.11112700000001</v>
       </c>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
         <v>394</v>
       </c>
@@ -17262,7 +17263,7 @@
         <v>5264.9595419999996</v>
       </c>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
         <v>395</v>
       </c>
@@ -17285,7 +17286,7 @@
         <v>30.661736999999999</v>
       </c>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
         <v>396</v>
       </c>
@@ -17308,7 +17309,7 @@
         <v>12789.369559000001</v>
       </c>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
         <v>397</v>
       </c>
@@ -17331,7 +17332,7 @@
         <v>25.5</v>
       </c>
     </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
         <v>398</v>
       </c>
@@ -17357,7 +17358,7 @@
         <v>19.999980000000001</v>
       </c>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
         <v>399</v>
       </c>
@@ -17383,7 +17384,7 @@
         <v>19.999980000000001</v>
       </c>
     </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
         <v>400</v>
       </c>
@@ -17409,7 +17410,7 @@
         <v>35115.498722999997</v>
       </c>
     </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
         <v>401</v>
       </c>
@@ -17429,7 +17430,7 @@
         <v>1322.1963599999999</v>
       </c>
     </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
         <v>402</v>
       </c>
@@ -17452,7 +17453,7 @@
         <v>95768.838818999997</v>
       </c>
     </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
         <v>403</v>
       </c>
@@ -17478,7 +17479,7 @@
         <v>89303.979349000001</v>
       </c>
     </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
         <v>404</v>
       </c>
@@ -17504,7 +17505,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
         <v>405</v>
       </c>
@@ -17530,7 +17531,7 @@
         <v>3500.4802989999998</v>
       </c>
     </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
         <v>406</v>
       </c>
@@ -17556,7 +17557,7 @@
         <v>488074.40681999997</v>
       </c>
     </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
         <v>407</v>
       </c>
@@ -17582,7 +17583,7 @@
         <v>20.999110000000002</v>
       </c>
     </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
         <v>408</v>
       </c>
@@ -17608,7 +17609,7 @@
         <v>752140.99008999998</v>
       </c>
     </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
         <v>409</v>
       </c>
@@ -17631,7 +17632,7 @@
         <v>80.606560999999999</v>
       </c>
     </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
         <v>410</v>
       </c>
@@ -17657,7 +17658,7 @@
         <v>20.311782999999998</v>
       </c>
     </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
         <v>411</v>
       </c>
@@ -17683,7 +17684,7 @@
         <v>5025.616223</v>
       </c>
     </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
         <v>412</v>
       </c>
@@ -17709,7 +17710,7 @@
         <v>20.369011</v>
       </c>
     </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
         <v>413</v>
       </c>
@@ -17729,7 +17730,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
         <v>414</v>
       </c>
@@ -17752,7 +17753,7 @@
         <v>4216.5066820000002</v>
       </c>
     </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
         <v>415</v>
       </c>
@@ -17772,7 +17773,7 @@
         <v>1398.0237910000001</v>
       </c>
     </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
         <v>416</v>
       </c>
@@ -17792,7 +17793,7 @@
         <v>205.620068</v>
       </c>
     </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
         <v>417</v>
       </c>
@@ -17815,7 +17816,7 @@
         <v>438829.46587999997</v>
       </c>
     </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
         <v>418</v>
       </c>
@@ -17838,7 +17839,7 @@
         <v>20.232191</v>
       </c>
     </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
         <v>419</v>
       </c>
@@ -17861,7 +17862,7 @@
         <v>2020.081265</v>
       </c>
     </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
         <v>420</v>
       </c>
@@ -17881,7 +17882,7 @@
         <v>42.515149000000001</v>
       </c>
     </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
         <v>421</v>
       </c>
@@ -17907,7 +17908,7 @@
         <v>20.666384000000001</v>
       </c>
     </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
         <v>422</v>
       </c>
@@ -17933,7 +17934,7 @@
         <v>20.876049999999999</v>
       </c>
     </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
         <v>423</v>
       </c>
@@ -17956,7 +17957,7 @@
         <v>773.87404700000002</v>
       </c>
     </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
         <v>424</v>
       </c>
@@ -17982,7 +17983,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
         <v>425</v>
       </c>
@@ -18008,7 +18009,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
         <v>426</v>
       </c>
@@ -18034,7 +18035,7 @@
         <v>8777.7430370000002</v>
       </c>
     </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
         <v>427</v>
       </c>
@@ -18060,7 +18061,7 @@
         <v>47.901156999999998</v>
       </c>
     </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
         <v>428</v>
       </c>
@@ -18086,7 +18087,7 @@
         <v>13835.743504</v>
       </c>
     </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" s="1">
         <v>429</v>
       </c>
@@ -18106,7 +18107,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" s="1">
         <v>430</v>
       </c>
@@ -18129,7 +18130,7 @@
         <v>22143.144915000001</v>
       </c>
     </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" s="1">
         <v>431</v>
       </c>
@@ -18155,7 +18156,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="434" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" s="1">
         <v>432</v>
       </c>
@@ -18181,7 +18182,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" s="1">
         <v>433</v>
       </c>
@@ -18204,7 +18205,7 @@
         <v>253752.83983499999</v>
       </c>
     </row>
-    <row r="436" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
         <v>434</v>
       </c>
@@ -18224,7 +18225,7 @@
         <v>20.013306</v>
       </c>
     </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
         <v>435</v>
       </c>
@@ -18247,7 +18248,7 @@
         <v>34499.525628000003</v>
       </c>
     </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
         <v>436</v>
       </c>
@@ -18273,7 +18274,7 @@
         <v>1824.2577000000001</v>
       </c>
     </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" s="1">
         <v>437</v>
       </c>
@@ -18299,7 +18300,7 @@
         <v>14391.589995</v>
       </c>
     </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" s="1">
         <v>438</v>
       </c>
@@ -18319,7 +18320,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" s="1">
         <v>439</v>
       </c>
@@ -18342,7 +18343,7 @@
         <v>10676.378769000001</v>
       </c>
     </row>
-    <row r="442" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" s="1">
         <v>440</v>
       </c>
@@ -18365,7 +18366,7 @@
         <v>24.984268</v>
       </c>
     </row>
-    <row r="443" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" s="1">
         <v>441</v>
       </c>
@@ -18388,7 +18389,7 @@
         <v>3835.8100559999998</v>
       </c>
     </row>
-    <row r="444" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" s="1">
         <v>442</v>
       </c>
@@ -18414,7 +18415,7 @@
         <v>125.738225</v>
       </c>
     </row>
-    <row r="445" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" s="1">
         <v>443</v>
       </c>
@@ -18440,7 +18441,7 @@
         <v>531.31497200000001</v>
       </c>
     </row>
-    <row r="446" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" s="1">
         <v>444</v>
       </c>
@@ -18466,7 +18467,7 @@
         <v>139.579736</v>
       </c>
     </row>
-    <row r="447" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" s="1">
         <v>445</v>
       </c>
@@ -18489,7 +18490,7 @@
         <v>7604.0898790000001</v>
       </c>
     </row>
-    <row r="448" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" s="1">
         <v>446</v>
       </c>
@@ -18515,7 +18516,7 @@
         <v>20.999987999999998</v>
       </c>
     </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" s="1">
         <v>447</v>
       </c>
@@ -18541,7 +18542,7 @@
         <v>46270.698231000002</v>
       </c>
     </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" s="1">
         <v>448</v>
       </c>
@@ -18567,7 +18568,7 @@
         <v>155335.30927500001</v>
       </c>
     </row>
-    <row r="451" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" s="1">
         <v>449</v>
       </c>
@@ -18590,7 +18591,7 @@
         <v>98213.845096999998</v>
       </c>
     </row>
-    <row r="452" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" s="1">
         <v>450</v>
       </c>
@@ -18616,7 +18617,7 @@
         <v>3381.4204589999999</v>
       </c>
     </row>
-    <row r="453" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" s="1">
         <v>451</v>
       </c>
@@ -18642,7 +18643,7 @@
         <v>1087540.104213</v>
       </c>
     </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" s="1">
         <v>452</v>
       </c>
@@ -18665,7 +18666,7 @@
         <v>75.139669999999995</v>
       </c>
     </row>
-    <row r="455" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" s="1">
         <v>453</v>
       </c>
@@ -18688,7 +18689,7 @@
         <v>13221.752415000001</v>
       </c>
     </row>
-    <row r="456" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" s="1">
         <v>454</v>
       </c>
@@ -18711,7 +18712,7 @@
         <v>542682.95366300002</v>
       </c>
     </row>
-    <row r="457" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" s="1">
         <v>455</v>
       </c>
@@ -18734,7 +18735,7 @@
         <v>42529.855100000001</v>
       </c>
     </row>
-    <row r="458" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" s="1">
         <v>456</v>
       </c>
@@ -18754,7 +18755,7 @@
         <v>20.044594</v>
       </c>
     </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" s="1">
         <v>457</v>
       </c>
@@ -18777,7 +18778,7 @@
         <v>71157478.014292002</v>
       </c>
     </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" s="1">
         <v>458</v>
       </c>
@@ -18800,7 +18801,7 @@
         <v>23914994.960342001</v>
       </c>
     </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" s="1">
         <v>459</v>
       </c>
@@ -18826,7 +18827,7 @@
         <v>99.69</v>
       </c>
     </row>
-    <row r="462" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" s="1">
         <v>460</v>
       </c>
@@ -18852,7 +18853,7 @@
         <v>99.977059999999994</v>
       </c>
     </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" s="1">
         <v>461</v>
       </c>
@@ -18878,7 +18879,7 @@
         <v>87.83</v>
       </c>
     </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" s="1">
         <v>462</v>
       </c>
@@ -18904,7 +18905,7 @@
         <v>191.177254</v>
       </c>
     </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" s="1">
         <v>463</v>
       </c>
@@ -18930,7 +18931,7 @@
         <v>99.63</v>
       </c>
     </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" s="1">
         <v>464</v>
       </c>
@@ -18956,7 +18957,7 @@
         <v>99.809337999999997</v>
       </c>
     </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" s="1">
         <v>465</v>
       </c>
@@ -18982,7 +18983,7 @@
         <v>99.276064000000005</v>
       </c>
     </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" s="1">
         <v>466</v>
       </c>
@@ -19008,7 +19009,7 @@
         <v>98.16</v>
       </c>
     </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469" s="1">
         <v>467</v>
       </c>
@@ -19034,7 +19035,7 @@
         <v>303.62631299999998</v>
       </c>
     </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470" s="1">
         <v>468</v>
       </c>
@@ -19060,7 +19061,7 @@
         <v>198.46</v>
       </c>
     </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471" s="1">
         <v>469</v>
       </c>
@@ -19086,7 +19087,7 @@
         <v>199.37102400000001</v>
       </c>
     </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" s="1">
         <v>470</v>
       </c>
@@ -19109,7 +19110,7 @@
         <v>54894.423990000003</v>
       </c>
     </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473" s="1">
         <v>471</v>
       </c>
@@ -19132,7 +19133,7 @@
         <v>62745.639977999999</v>
       </c>
     </row>
-    <row r="474" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474" s="1">
         <v>472</v>
       </c>
@@ -19158,7 +19159,7 @@
         <v>20.099979999999999</v>
       </c>
     </row>
-    <row r="475" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475" s="1">
         <v>473</v>
       </c>
@@ -19184,7 +19185,7 @@
         <v>13421.335052</v>
       </c>
     </row>
-    <row r="476" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" s="1">
         <v>474</v>
       </c>
@@ -19207,7 +19208,7 @@
         <v>49.2393</v>
       </c>
     </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477" s="1">
         <v>475</v>
       </c>
@@ -19230,7 +19231,7 @@
         <v>6701.7830999999996</v>
       </c>
     </row>
-    <row r="478" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478" s="1">
         <v>476</v>
       </c>
@@ -19256,7 +19257,7 @@
         <v>1474.13167</v>
       </c>
     </row>
-    <row r="479" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479" s="1">
         <v>477</v>
       </c>
@@ -19282,7 +19283,7 @@
         <v>125896.597394</v>
       </c>
     </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480" s="1">
         <v>478</v>
       </c>
@@ -19305,7 +19306,7 @@
         <v>1309.0252370000001</v>
       </c>
     </row>
-    <row r="481" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" s="1">
         <v>479</v>
       </c>
@@ -19331,7 +19332,7 @@
         <v>5005.3867879999998</v>
       </c>
     </row>
-    <row r="482" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482" s="1">
         <v>480</v>
       </c>
@@ -19357,7 +19358,7 @@
         <v>970129.96366100002</v>
       </c>
     </row>
-    <row r="483" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483" s="1">
         <v>481</v>
       </c>
@@ -19383,7 +19384,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="484" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" s="1">
         <v>482</v>
       </c>
@@ -19409,7 +19410,7 @@
         <v>305034.25517600001</v>
       </c>
     </row>
-    <row r="485" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485" s="1">
         <v>483</v>
       </c>
@@ -19435,7 +19436,7 @@
         <v>20.908321999999998</v>
       </c>
     </row>
-    <row r="486" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486" s="1">
         <v>484</v>
       </c>
@@ -19461,7 +19462,7 @@
         <v>5901386.1774660004</v>
       </c>
     </row>
-    <row r="487" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487" s="1">
         <v>485</v>
       </c>
@@ -19487,7 +19488,7 @@
         <v>50.484990000000003</v>
       </c>
     </row>
-    <row r="488" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488" s="1">
         <v>486</v>
       </c>
@@ -19510,7 +19511,7 @@
         <v>26372.542260999999</v>
       </c>
     </row>
-    <row r="489" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489" s="1">
         <v>487</v>
       </c>
@@ -19533,7 +19534,7 @@
         <v>4423.3555530000003</v>
       </c>
     </row>
-    <row r="490" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490" s="1">
         <v>488</v>
       </c>
@@ -19556,7 +19557,7 @@
         <v>13622.604735999999</v>
       </c>
     </row>
-    <row r="491" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491" s="1">
         <v>489</v>
       </c>
@@ -19582,7 +19583,7 @@
         <v>20.790299999999998</v>
       </c>
     </row>
-    <row r="492" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492" s="1">
         <v>490</v>
       </c>
@@ -19608,7 +19609,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="493" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493" s="1">
         <v>491</v>
       </c>
@@ -19634,7 +19635,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="494" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494" s="1">
         <v>492</v>
       </c>
@@ -19660,7 +19661,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="495" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495" s="1">
         <v>493</v>
       </c>
@@ -19686,7 +19687,7 @@
         <v>63.992963000000003</v>
       </c>
     </row>
-    <row r="496" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496" s="1">
         <v>494</v>
       </c>
@@ -19712,7 +19713,7 @@
         <v>20485.149217999999</v>
       </c>
     </row>
-    <row r="497" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497" s="1">
         <v>495</v>
       </c>
@@ -19738,7 +19739,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="498" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498" s="1">
         <v>496</v>
       </c>
@@ -19764,7 +19765,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="499" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499" s="1">
         <v>497</v>
       </c>
@@ -19790,7 +19791,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="500" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500" s="1">
         <v>498</v>
       </c>
@@ -19816,7 +19817,7 @@
         <v>20.099</v>
       </c>
     </row>
-    <row r="501" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501" s="1">
         <v>499</v>
       </c>
@@ -19842,7 +19843,7 @@
         <v>20.099</v>
       </c>
     </row>
-    <row r="502" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502" s="1">
         <v>500</v>
       </c>
@@ -19865,7 +19866,7 @@
         <v>8530.1689590000005</v>
       </c>
     </row>
-    <row r="503" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503" s="1">
         <v>501</v>
       </c>
@@ -19885,7 +19886,7 @@
         <v>28.167909000000002</v>
       </c>
     </row>
-    <row r="504" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504" s="1">
         <v>502</v>
       </c>
@@ -19905,7 +19906,7 @@
         <v>1601626.4897040001</v>
       </c>
     </row>
-    <row r="505" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505" s="1">
         <v>503</v>
       </c>
@@ -19928,7 +19929,7 @@
         <v>14758.231405</v>
       </c>
     </row>
-    <row r="506" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A506" s="1">
         <v>504</v>
       </c>
@@ -19954,7 +19955,7 @@
         <v>38.514977000000002</v>
       </c>
     </row>
-    <row r="507" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A507" s="1">
         <v>505</v>
       </c>
@@ -19980,7 +19981,7 @@
         <v>50.169429999999998</v>
       </c>
     </row>
-    <row r="508" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A508" s="1">
         <v>506</v>
       </c>
@@ -20003,7 +20004,7 @@
         <v>1025016.639901</v>
       </c>
     </row>
-    <row r="509" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A509" s="1">
         <v>507</v>
       </c>
@@ -20029,7 +20030,7 @@
         <v>178880.954394</v>
       </c>
     </row>
-    <row r="510" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510" s="1">
         <v>508</v>
       </c>
@@ -20055,7 +20056,7 @@
         <v>14568832.999989999</v>
       </c>
     </row>
-    <row r="511" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A511" s="1">
         <v>509</v>
       </c>
@@ -20081,7 +20082,7 @@
         <v>999.63499999999999</v>
       </c>
     </row>
-    <row r="512" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A512" s="1">
         <v>510</v>
       </c>
@@ -20104,7 +20105,7 @@
         <v>13239.234458000001</v>
       </c>
     </row>
-    <row r="513" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A513" s="1">
         <v>511</v>
       </c>
@@ -20127,7 +20128,7 @@
         <v>20.44622</v>
       </c>
     </row>
-    <row r="514" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A514" s="1">
         <v>512</v>
       </c>
@@ -20150,7 +20151,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="515" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A515" s="1">
         <v>513</v>
       </c>
@@ -20173,7 +20174,7 @@
         <v>20.708002</v>
       </c>
     </row>
-    <row r="516" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A516" s="1">
         <v>514</v>
       </c>
@@ -20196,7 +20197,7 @@
         <v>1197.8119810000001</v>
       </c>
     </row>
-    <row r="517" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A517" s="1">
         <v>515</v>
       </c>
@@ -20222,7 +20223,7 @@
         <v>46888.161115000003</v>
       </c>
     </row>
-    <row r="518" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A518" s="1">
         <v>516</v>
       </c>
@@ -20245,7 +20246,7 @@
         <v>1022.078274</v>
       </c>
     </row>
-    <row r="519" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A519" s="1">
         <v>517</v>
       </c>
@@ -20265,7 +20266,7 @@
         <v>70.983569000000003</v>
       </c>
     </row>
-    <row r="520" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A520" s="1">
         <v>518</v>
       </c>
@@ -20285,7 +20286,7 @@
         <v>42293.033260999997</v>
       </c>
     </row>
-    <row r="521" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A521" s="1">
         <v>519</v>
       </c>
@@ -20305,7 +20306,7 @@
         <v>1268.5375710000001</v>
       </c>
     </row>
-    <row r="522" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A522" s="1">
         <v>520</v>
       </c>
@@ -20331,7 +20332,7 @@
         <v>26.009998</v>
       </c>
     </row>
-    <row r="523" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A523" s="1">
         <v>521</v>
       </c>
@@ -20357,7 +20358,7 @@
         <v>603.356449</v>
       </c>
     </row>
-    <row r="524" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A524" s="1">
         <v>522</v>
       </c>
@@ -20383,7 +20384,7 @@
         <v>306.72977600000002</v>
       </c>
     </row>
-    <row r="525" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A525" s="1">
         <v>523</v>
       </c>
@@ -20409,7 +20410,7 @@
         <v>270.43342999999999</v>
       </c>
     </row>
-    <row r="526" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A526" s="1">
         <v>524</v>
       </c>
@@ -20432,7 +20433,7 @@
         <v>20.039038000000001</v>
       </c>
     </row>
-    <row r="527" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A527" s="1">
         <v>525</v>
       </c>
@@ -20455,7 +20456,7 @@
         <v>119607.433865</v>
       </c>
     </row>
-    <row r="528" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A528" s="1">
         <v>526</v>
       </c>
@@ -20478,7 +20479,7 @@
         <v>502265651.79226398</v>
       </c>
     </row>
-    <row r="529" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A529" s="1">
         <v>527</v>
       </c>
@@ -20504,7 +20505,7 @@
         <v>36.659967000000002</v>
       </c>
     </row>
-    <row r="530" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A530" s="1">
         <v>528</v>
       </c>
@@ -20530,7 +20531,7 @@
         <v>20.999988999999999</v>
       </c>
     </row>
-    <row r="531" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A531" s="1">
         <v>529</v>
       </c>
@@ -20556,7 +20557,7 @@
         <v>141907.21482299999</v>
       </c>
     </row>
-    <row r="532" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A532" s="1">
         <v>530</v>
       </c>
@@ -20582,7 +20583,7 @@
         <v>5598698.2779240003</v>
       </c>
     </row>
-    <row r="533" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A533" s="1">
         <v>531</v>
       </c>
@@ -20608,7 +20609,7 @@
         <v>2698763.605521</v>
       </c>
     </row>
-    <row r="534" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A534" s="1">
         <v>532</v>
       </c>
@@ -20631,7 +20632,7 @@
         <v>854791.42893699999</v>
       </c>
     </row>
-    <row r="535" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A535" s="1">
         <v>533</v>
       </c>
@@ -20654,7 +20655,7 @@
         <v>134.857675</v>
       </c>
     </row>
-    <row r="536" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A536" s="1">
         <v>534</v>
       </c>
@@ -20677,7 +20678,7 @@
         <v>19051.579383</v>
       </c>
     </row>
-    <row r="537" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A537" s="1">
         <v>535</v>
       </c>
@@ -20703,7 +20704,7 @@
         <v>136295.716223</v>
       </c>
     </row>
-    <row r="538" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A538" s="1">
         <v>536</v>
       </c>
@@ -20729,7 +20730,7 @@
         <v>18742.078185999999</v>
       </c>
     </row>
-    <row r="539" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A539" s="1">
         <v>537</v>
       </c>
@@ -20755,7 +20756,7 @@
         <v>2456.8272510000002</v>
       </c>
     </row>
-    <row r="540" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A540" s="1">
         <v>538</v>
       </c>
@@ -20781,7 +20782,7 @@
         <v>22565.370606</v>
       </c>
     </row>
-    <row r="541" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A541" s="1">
         <v>539</v>
       </c>
@@ -20804,7 +20805,7 @@
         <v>1835.400956</v>
       </c>
     </row>
-    <row r="542" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A542" s="1">
         <v>540</v>
       </c>
@@ -20824,7 +20825,7 @@
         <v>52.698417999999997</v>
       </c>
     </row>
-    <row r="543" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A543" s="1">
         <v>541</v>
       </c>
@@ -20847,7 +20848,7 @@
         <v>107.34419699999999</v>
       </c>
     </row>
-    <row r="544" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A544" s="1">
         <v>542</v>
       </c>
@@ -20873,7 +20874,7 @@
         <v>757936.46123100002</v>
       </c>
     </row>
-    <row r="545" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A545" s="1">
         <v>543</v>
       </c>
@@ -20899,7 +20900,7 @@
         <v>4151783.235353</v>
       </c>
     </row>
-    <row r="546" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A546" s="1">
         <v>544</v>
       </c>
@@ -20925,7 +20926,7 @@
         <v>742159.25862600002</v>
       </c>
     </row>
-    <row r="547" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A547" s="1">
         <v>545</v>
       </c>
@@ -20951,7 +20952,7 @@
         <v>24.99999</v>
       </c>
     </row>
-    <row r="548" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A548" s="1">
         <v>546</v>
       </c>
@@ -20974,7 +20975,7 @@
         <v>61653.645090999999</v>
       </c>
     </row>
-    <row r="549" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A549" s="1">
         <v>547</v>
       </c>
@@ -21000,7 +21001,7 @@
         <v>2090785.799254</v>
       </c>
     </row>
-    <row r="550" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A550" s="1">
         <v>548</v>
       </c>
@@ -21026,7 +21027,7 @@
         <v>50.014296000000002</v>
       </c>
     </row>
-    <row r="551" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A551" s="1">
         <v>549</v>
       </c>
@@ -21052,7 +21053,7 @@
         <v>112.73162600000001</v>
       </c>
     </row>
-    <row r="552" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A552" s="1">
         <v>550</v>
       </c>
@@ -21075,7 +21076,7 @@
         <v>17749.203117000001</v>
       </c>
     </row>
-    <row r="553" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A553" s="1">
         <v>551</v>
       </c>
@@ -21098,7 +21099,7 @@
         <v>228382.852075</v>
       </c>
     </row>
-    <row r="554" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A554" s="1">
         <v>552</v>
       </c>
@@ -21124,7 +21125,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="555" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A555" s="1">
         <v>553</v>
       </c>
@@ -21150,7 +21151,7 @@
         <v>10005379.254504999</v>
       </c>
     </row>
-    <row r="556" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A556" s="1">
         <v>554</v>
       </c>
@@ -21173,7 +21174,7 @@
         <v>1321647.4685889999</v>
       </c>
     </row>
-    <row r="557" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A557" s="1">
         <v>555</v>
       </c>
@@ -21199,7 +21200,7 @@
         <v>20.000033999999999</v>
       </c>
     </row>
-    <row r="558" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A558" s="1">
         <v>556</v>
       </c>
@@ -21222,7 +21223,7 @@
         <v>59.927872000000001</v>
       </c>
     </row>
-    <row r="559" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A559" s="1">
         <v>557</v>
       </c>
@@ -21245,7 +21246,7 @@
         <v>827770.45429699996</v>
       </c>
     </row>
-    <row r="560" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A560" s="1">
         <v>558</v>
       </c>
@@ -21265,7 +21266,7 @@
         <v>19.993914</v>
       </c>
     </row>
-    <row r="561" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A561" s="1">
         <v>559</v>
       </c>
@@ -21291,7 +21292,7 @@
         <v>19089570.370834</v>
       </c>
     </row>
-    <row r="562" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A562" s="1">
         <v>560</v>
       </c>
@@ -21317,7 +21318,7 @@
         <v>954810.90255300002</v>
       </c>
     </row>
-    <row r="563" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A563" s="1">
         <v>561</v>
       </c>
@@ -21337,7 +21338,7 @@
         <v>19367.611043000001</v>
       </c>
     </row>
-    <row r="564" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A564" s="1">
         <v>562</v>
       </c>
@@ -21360,7 +21361,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="565" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A565" s="1">
         <v>563</v>
       </c>
@@ -21383,7 +21384,7 @@
         <v>257.43558000000002</v>
       </c>
     </row>
-    <row r="566" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A566" s="1">
         <v>564</v>
       </c>
@@ -21406,7 +21407,7 @@
         <v>106.638086</v>
       </c>
     </row>
-    <row r="567" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A567" s="1">
         <v>565</v>
       </c>
@@ -21429,7 +21430,7 @@
         <v>201.46642199999999</v>
       </c>
     </row>
-    <row r="568" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A568" s="1">
         <v>566</v>
       </c>
@@ -21452,7 +21453,7 @@
         <v>58.192413000000002</v>
       </c>
     </row>
-    <row r="569" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A569" s="1">
         <v>567</v>
       </c>
@@ -21475,7 +21476,7 @@
         <v>102.209881</v>
       </c>
     </row>
-    <row r="570" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A570" s="1">
         <v>568</v>
       </c>
@@ -21498,7 +21499,7 @@
         <v>22.99999</v>
       </c>
     </row>
-    <row r="571" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A571" s="1">
         <v>569</v>
       </c>
@@ -21521,7 +21522,7 @@
         <v>95.265658999999999</v>
       </c>
     </row>
-    <row r="572" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A572" s="1">
         <v>570</v>
       </c>
@@ -21544,7 +21545,7 @@
         <v>70.95993</v>
       </c>
     </row>
-    <row r="573" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A573" s="1">
         <v>571</v>
       </c>
@@ -21567,7 +21568,7 @@
         <v>21.413661000000001</v>
       </c>
     </row>
-    <row r="574" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A574" s="1">
         <v>572</v>
       </c>
@@ -21593,7 +21594,7 @@
         <v>162.46151</v>
       </c>
     </row>
-    <row r="575" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A575" s="1">
         <v>573</v>
       </c>
@@ -21619,7 +21620,7 @@
         <v>87007.369588999994</v>
       </c>
     </row>
-    <row r="576" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A576" s="1">
         <v>574</v>
       </c>
@@ -21642,7 +21643,7 @@
         <v>2470.1198399999998</v>
       </c>
     </row>
-    <row r="577" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A577" s="1">
         <v>575</v>
       </c>
@@ -21665,7 +21666,7 @@
         <v>40829.128177999999</v>
       </c>
     </row>
-    <row r="578" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A578" s="1">
         <v>576</v>
       </c>
@@ -21685,7 +21686,7 @@
         <v>47095.875477000001</v>
       </c>
     </row>
-    <row r="579" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A579" s="1">
         <v>577</v>
       </c>
@@ -21711,7 +21712,7 @@
         <v>1199275.445143</v>
       </c>
     </row>
-    <row r="580" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A580" s="1">
         <v>578</v>
       </c>
@@ -21737,7 +21738,7 @@
         <v>2934089.214803</v>
       </c>
     </row>
-    <row r="581" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A581" s="1">
         <v>579</v>
       </c>
@@ -21757,7 +21758,7 @@
         <v>20.578247999999999</v>
       </c>
     </row>
-    <row r="582" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A582" s="1">
         <v>580</v>
       </c>
@@ -21780,7 +21781,7 @@
         <v>269411.93659300002</v>
       </c>
     </row>
-    <row r="583" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A583" s="1">
         <v>581</v>
       </c>
@@ -21803,7 +21804,7 @@
         <v>903.16020400000002</v>
       </c>
     </row>
-    <row r="584" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A584" s="1">
         <v>582</v>
       </c>
@@ -21826,7 +21827,7 @@
         <v>55411.164026999999</v>
       </c>
     </row>
-    <row r="585" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A585" s="1">
         <v>583</v>
       </c>
@@ -21849,7 +21850,7 @@
         <v>15589.014372</v>
       </c>
     </row>
-    <row r="586" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A586" s="1">
         <v>584</v>
       </c>
@@ -21869,7 +21870,7 @@
         <v>94818.051617000005</v>
       </c>
     </row>
-    <row r="587" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A587" s="1">
         <v>585</v>
       </c>
@@ -21892,7 +21893,7 @@
         <v>1899902.4342660001</v>
       </c>
     </row>
-    <row r="588" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A588" s="1">
         <v>586</v>
       </c>
@@ -21915,7 +21916,7 @@
         <v>176047578.70506999</v>
       </c>
     </row>
-    <row r="589" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A589" s="1">
         <v>587</v>
       </c>
@@ -21938,7 +21939,7 @@
         <v>5035.6903410000004</v>
       </c>
     </row>
-    <row r="590" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A590" s="1">
         <v>588</v>
       </c>
@@ -21961,7 +21962,7 @@
         <v>66.414820000000006</v>
       </c>
     </row>
-    <row r="591" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A591" s="1">
         <v>589</v>
       </c>
@@ -21984,7 +21985,7 @@
         <v>88301.131416000004</v>
       </c>
     </row>
-    <row r="592" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A592" s="1">
         <v>590</v>
       </c>
@@ -22004,7 +22005,7 @@
         <v>21.001716999999999</v>
       </c>
     </row>
-    <row r="593" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A593" s="1">
         <v>591</v>
       </c>
@@ -22027,7 +22028,7 @@
         <v>20.003651000000001</v>
       </c>
     </row>
-    <row r="594" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A594" s="1">
         <v>592</v>
       </c>
@@ -22047,7 +22048,7 @@
         <v>104.999976</v>
       </c>
     </row>
-    <row r="595" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A595" s="1">
         <v>593</v>
       </c>
@@ -22073,7 +22074,7 @@
         <v>20.094771000000001</v>
       </c>
     </row>
-    <row r="596" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A596" s="1">
         <v>594</v>
       </c>
@@ -22096,7 +22097,7 @@
         <v>69311.330486000006</v>
       </c>
     </row>
-    <row r="597" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A597" s="1">
         <v>595</v>
       </c>
@@ -22119,7 +22120,7 @@
         <v>528.47269200000005</v>
       </c>
     </row>
-    <row r="598" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A598" s="1">
         <v>596</v>
       </c>
@@ -22139,7 +22140,7 @@
         <v>21.195077000000001</v>
       </c>
     </row>
-    <row r="599" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A599" s="1">
         <v>597</v>
       </c>
@@ -22165,7 +22166,7 @@
         <v>45.999955</v>
       </c>
     </row>
-    <row r="600" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A600" s="1">
         <v>598</v>
       </c>
@@ -22191,7 +22192,7 @@
         <v>3026604.6537529998</v>
       </c>
     </row>
-    <row r="601" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A601" s="1">
         <v>599</v>
       </c>
@@ -22217,7 +22218,7 @@
         <v>473272.17396699998</v>
       </c>
     </row>
-    <row r="602" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A602" s="1">
         <v>600</v>
       </c>
@@ -22240,7 +22241,7 @@
         <v>20.000021</v>
       </c>
     </row>
-    <row r="603" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A603" s="1">
         <v>601</v>
       </c>
@@ -22263,7 +22264,7 @@
         <v>20.376263999999999</v>
       </c>
     </row>
-    <row r="604" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A604" s="1">
         <v>602</v>
       </c>
@@ -22286,7 +22287,7 @@
         <v>2012.945825</v>
       </c>
     </row>
-    <row r="605" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A605" s="1">
         <v>603</v>
       </c>
@@ -22312,7 +22313,7 @@
         <v>99.999989999999997</v>
       </c>
     </row>
-    <row r="606" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A606" s="1">
         <v>604</v>
       </c>
@@ -22338,7 +22339,7 @@
         <v>34814204.356900997</v>
       </c>
     </row>
-    <row r="607" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A607" s="1">
         <v>605</v>
       </c>
@@ -22361,7 +22362,7 @@
         <v>270.199004</v>
       </c>
     </row>
-    <row r="608" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A608" s="1">
         <v>606</v>
       </c>
@@ -22384,7 +22385,7 @@
         <v>816.929483</v>
       </c>
     </row>
-    <row r="609" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A609" s="1">
         <v>607</v>
       </c>
@@ -22407,7 +22408,7 @@
         <v>57281.584992999997</v>
       </c>
     </row>
-    <row r="610" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A610" s="1">
         <v>608</v>
       </c>
@@ -22430,7 +22431,7 @@
         <v>6135.191495</v>
       </c>
     </row>
-    <row r="611" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A611" s="1">
         <v>609</v>
       </c>
@@ -22453,7 +22454,7 @@
         <v>44.331288999999998</v>
       </c>
     </row>
-    <row r="612" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A612" s="1">
         <v>610</v>
       </c>
@@ -22476,7 +22477,7 @@
         <v>3968.8061029999999</v>
       </c>
     </row>
-    <row r="613" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A613" s="1">
         <v>611</v>
       </c>
@@ -22499,7 +22500,7 @@
         <v>122.658221</v>
       </c>
     </row>
-    <row r="614" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A614" s="1">
         <v>612</v>
       </c>
@@ -22522,7 +22523,7 @@
         <v>1028539.948219</v>
       </c>
     </row>
-    <row r="615" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A615" s="1">
         <v>613</v>
       </c>
@@ -22545,7 +22546,7 @@
         <v>20957.074339999999</v>
       </c>
     </row>
-    <row r="616" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A616" s="1">
         <v>614</v>
       </c>
@@ -22565,7 +22566,7 @@
         <v>21.127790999999998</v>
       </c>
     </row>
-    <row r="617" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A617" s="1">
         <v>615</v>
       </c>
@@ -22588,7 +22589,7 @@
         <v>3664.9164860000001</v>
       </c>
     </row>
-    <row r="618" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A618" s="1">
         <v>616</v>
       </c>
@@ -22614,7 +22615,7 @@
         <v>20.999980000000001</v>
       </c>
     </row>
-    <row r="619" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A619" s="1">
         <v>617</v>
       </c>
@@ -22640,7 +22641,7 @@
         <v>21865074.72597</v>
       </c>
     </row>
-    <row r="620" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A620" s="1">
         <v>618</v>
       </c>
@@ -22663,7 +22664,7 @@
         <v>680.06151399999999</v>
       </c>
     </row>
-    <row r="621" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A621" s="1">
         <v>619</v>
       </c>
@@ -22686,7 +22687,7 @@
         <v>614806.42428799998</v>
       </c>
     </row>
-    <row r="622" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A622" s="1">
         <v>620</v>
       </c>
@@ -22709,7 +22710,7 @@
         <v>9102.7197419999993</v>
       </c>
     </row>
-    <row r="623" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A623" s="1">
         <v>621</v>
       </c>
@@ -22735,7 +22736,7 @@
         <v>59491.934402999999</v>
       </c>
     </row>
-    <row r="624" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A624" s="1">
         <v>622</v>
       </c>
@@ -22761,7 +22762,7 @@
         <v>382478.765288</v>
       </c>
     </row>
-    <row r="625" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A625" s="1">
         <v>623</v>
       </c>
@@ -22784,7 +22785,7 @@
         <v>20.934076000000001</v>
       </c>
     </row>
-    <row r="626" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A626" s="1">
         <v>624</v>
       </c>
@@ -22807,7 +22808,7 @@
         <v>190.48499000000001</v>
       </c>
     </row>
-    <row r="627" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A627" s="1">
         <v>625</v>
       </c>
@@ -22830,7 +22831,7 @@
         <v>20.319813</v>
       </c>
     </row>
-    <row r="628" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A628" s="1">
         <v>626</v>
       </c>
@@ -22853,7 +22854,7 @@
         <v>20.028642000000001</v>
       </c>
     </row>
-    <row r="629" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A629" s="1">
         <v>627</v>
       </c>
@@ -22876,7 +22877,7 @@
         <v>298.20420799999999</v>
       </c>
     </row>
-    <row r="630" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A630" s="1">
         <v>628</v>
       </c>
@@ -22899,7 +22900,7 @@
         <v>20.392700999999999</v>
       </c>
     </row>
-    <row r="631" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="631" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A631" s="1">
         <v>629</v>
       </c>
@@ -22922,7 +22923,7 @@
         <v>9538.0440999999992</v>
       </c>
     </row>
-    <row r="632" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A632" s="1">
         <v>630</v>
       </c>
@@ -22945,7 +22946,7 @@
         <v>20.544523000000002</v>
       </c>
     </row>
-    <row r="633" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A633" s="1">
         <v>631</v>
       </c>
@@ -22971,7 +22972,7 @@
         <v>43232.685353000001</v>
       </c>
     </row>
-    <row r="634" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A634" s="1">
         <v>632</v>
       </c>
@@ -22997,7 +22998,7 @@
         <v>20.778279000000001</v>
       </c>
     </row>
-    <row r="635" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A635" s="1">
         <v>633</v>
       </c>
@@ -23023,7 +23024,7 @@
         <v>31549.231172</v>
       </c>
     </row>
-    <row r="636" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="636" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A636" s="1">
         <v>634</v>
       </c>
@@ -23049,7 +23050,7 @@
         <v>402991.15173600003</v>
       </c>
     </row>
-    <row r="637" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="637" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A637" s="1">
         <v>635</v>
       </c>
@@ -23072,7 +23073,7 @@
         <v>20.009314</v>
       </c>
     </row>
-    <row r="638" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="638" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A638" s="1">
         <v>636</v>
       </c>
@@ -23095,7 +23096,7 @@
         <v>50192.428957999997</v>
       </c>
     </row>
-    <row r="639" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A639" s="1">
         <v>637</v>
       </c>
@@ -23118,7 +23119,7 @@
         <v>833993.44437899999</v>
       </c>
     </row>
-    <row r="640" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A640" s="1">
         <v>638</v>
       </c>
@@ -23141,7 +23142,7 @@
         <v>25.886748000000001</v>
       </c>
     </row>
-    <row r="641" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="641" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A641" s="1">
         <v>639</v>
       </c>
@@ -23167,7 +23168,7 @@
         <v>124.98999000000001</v>
       </c>
     </row>
-    <row r="642" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="642" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A642" s="1">
         <v>640</v>
       </c>
@@ -23193,7 +23194,7 @@
         <v>20.845037999999999</v>
       </c>
     </row>
-    <row r="643" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="643" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A643" s="1">
         <v>641</v>
       </c>
@@ -23219,7 +23220,7 @@
         <v>219.858</v>
       </c>
     </row>
-    <row r="644" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="644" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A644" s="1">
         <v>642</v>
       </c>
@@ -23245,7 +23246,7 @@
         <v>219.91200000000001</v>
       </c>
     </row>
-    <row r="645" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="645" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A645" s="1">
         <v>643</v>
       </c>
@@ -23271,7 +23272,7 @@
         <v>199.9204</v>
       </c>
     </row>
-    <row r="646" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="646" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A646" s="1">
         <v>644</v>
       </c>
@@ -23297,7 +23298,7 @@
         <v>199.93100000000001</v>
       </c>
     </row>
-    <row r="647" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="647" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A647" s="1">
         <v>645</v>
       </c>
@@ -23323,7 +23324,7 @@
         <v>400000200.93452001</v>
       </c>
     </row>
-    <row r="648" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="648" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A648" s="1">
         <v>646</v>
       </c>
@@ -23349,7 +23350,7 @@
         <v>500000199.88151002</v>
       </c>
     </row>
-    <row r="649" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="649" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A649" s="1">
         <v>647</v>
       </c>
@@ -23375,7 +23376,7 @@
         <v>199.88800000000001</v>
       </c>
     </row>
-    <row r="650" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="650" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A650" s="1">
         <v>648</v>
       </c>
@@ -23401,7 +23402,7 @@
         <v>199.88800000000001</v>
       </c>
     </row>
-    <row r="651" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="651" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A651" s="1">
         <v>649</v>
       </c>
@@ -23427,7 +23428,7 @@
         <v>199.888004</v>
       </c>
     </row>
-    <row r="652" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="652" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A652" s="1">
         <v>650</v>
       </c>
@@ -23453,7 +23454,7 @@
         <v>199.88800000000001</v>
       </c>
     </row>
-    <row r="653" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="653" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A653" s="1">
         <v>651</v>
       </c>
@@ -23479,7 +23480,7 @@
         <v>199.87299999999999</v>
       </c>
     </row>
-    <row r="654" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="654" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A654" s="1">
         <v>652</v>
       </c>
@@ -23505,7 +23506,7 @@
         <v>80342615.129011005</v>
       </c>
     </row>
-    <row r="655" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="655" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A655" s="1">
         <v>653</v>
       </c>
@@ -23531,7 +23532,7 @@
         <v>199.8175</v>
       </c>
     </row>
-    <row r="656" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="656" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A656" s="1">
         <v>654</v>
       </c>
@@ -23557,7 +23558,7 @@
         <v>199.96700000000001</v>
       </c>
     </row>
-    <row r="657" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="657" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A657" s="1">
         <v>655</v>
       </c>
@@ -23583,7 +23584,7 @@
         <v>224.98599999999999</v>
       </c>
     </row>
-    <row r="658" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="658" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A658" s="1">
         <v>656</v>
       </c>
@@ -23609,7 +23610,7 @@
         <v>200.96950000000001</v>
       </c>
     </row>
-    <row r="659" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="659" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A659" s="1">
         <v>657</v>
       </c>
@@ -23635,7 +23636,7 @@
         <v>199.9855</v>
       </c>
     </row>
-    <row r="660" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="660" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A660" s="1">
         <v>658</v>
       </c>
@@ -23661,7 +23662,7 @@
         <v>199.988</v>
       </c>
     </row>
-    <row r="661" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="661" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A661" s="1">
         <v>659</v>
       </c>
@@ -23687,7 +23688,7 @@
         <v>99.988</v>
       </c>
     </row>
-    <row r="662" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="662" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A662" s="1">
         <v>660</v>
       </c>
@@ -23713,7 +23714,7 @@
         <v>99.988</v>
       </c>
     </row>
-    <row r="663" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="663" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A663" s="1">
         <v>661</v>
       </c>
@@ -23739,7 +23740,7 @@
         <v>9719749.3467570003</v>
       </c>
     </row>
-    <row r="664" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="664" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A664" s="1">
         <v>662</v>
       </c>
@@ -23765,7 +23766,7 @@
         <v>3510027011.4840908</v>
       </c>
     </row>
-    <row r="665" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="665" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A665" s="1">
         <v>663</v>
       </c>
@@ -23791,7 +23792,7 @@
         <v>150000099.993</v>
       </c>
     </row>
-    <row r="666" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="666" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A666" s="1">
         <v>664</v>
       </c>
@@ -23817,7 +23818,7 @@
         <v>4384347690.9212198</v>
       </c>
     </row>
-    <row r="667" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="667" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A667" s="1">
         <v>665</v>
       </c>
@@ -23843,7 +23844,7 @@
         <v>650572774.98549998</v>
       </c>
     </row>
-    <row r="668" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="668" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A668" s="1">
         <v>666</v>
       </c>
@@ -23869,7 +23870,7 @@
         <v>99.992999999999995</v>
       </c>
     </row>
-    <row r="669" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="669" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A669" s="1">
         <v>667</v>
       </c>
@@ -23895,7 +23896,7 @@
         <v>1696039640.9755001</v>
       </c>
     </row>
-    <row r="670" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="670" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A670" s="1">
         <v>668</v>
       </c>
@@ -23921,7 +23922,7 @@
         <v>611734299.69000006</v>
       </c>
     </row>
-    <row r="671" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="671" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A671" s="1">
         <v>669</v>
       </c>
@@ -23947,7 +23948,7 @@
         <v>70.009</v>
       </c>
     </row>
-    <row r="672" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="672" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A672" s="1">
         <v>670</v>
       </c>
@@ -23973,7 +23974,7 @@
         <v>100.23295</v>
       </c>
     </row>
-    <row r="673" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="673" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A673" s="1">
         <v>671</v>
       </c>
@@ -23999,7 +24000,7 @@
         <v>70.436449999999994</v>
       </c>
     </row>
-    <row r="674" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="674" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A674" s="1">
         <v>672</v>
       </c>
@@ -24025,7 +24026,7 @@
         <v>2346635065.5749722</v>
       </c>
     </row>
-    <row r="675" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="675" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A675" s="1">
         <v>673</v>
       </c>
@@ -24051,7 +24052,7 @@
         <v>69.999988000000002</v>
       </c>
     </row>
-    <row r="676" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="676" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A676" s="1">
         <v>674</v>
       </c>
@@ -24077,7 +24078,7 @@
         <v>74.988</v>
       </c>
     </row>
-    <row r="677" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="677" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A677" s="1">
         <v>675</v>
       </c>
@@ -24103,7 +24104,7 @@
         <v>121.01029</v>
       </c>
     </row>
-    <row r="678" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="678" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A678" s="1">
         <v>676</v>
       </c>
@@ -24129,7 +24130,7 @@
         <v>70.998887999999994</v>
       </c>
     </row>
-    <row r="679" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="679" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A679" s="1">
         <v>677</v>
       </c>
@@ -24155,7 +24156,7 @@
         <v>70.001812000000001</v>
       </c>
     </row>
-    <row r="680" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="680" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A680" s="1">
         <v>678</v>
       </c>
@@ -24181,7 +24182,7 @@
         <v>70.995643000000001</v>
       </c>
     </row>
-    <row r="681" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="681" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A681" s="1">
         <v>679</v>
       </c>
@@ -24207,7 +24208,7 @@
         <v>7836511.4393140003</v>
       </c>
     </row>
-    <row r="682" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="682" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A682" s="1">
         <v>680</v>
       </c>
@@ -24233,7 +24234,7 @@
         <v>3705599.3428329998</v>
       </c>
     </row>
-    <row r="683" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="683" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A683" s="1">
         <v>681</v>
       </c>
@@ -24259,7 +24260,7 @@
         <v>21879.218857</v>
       </c>
     </row>
-    <row r="684" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="684" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A684" s="1">
         <v>682</v>
       </c>
@@ -24285,7 +24286,7 @@
         <v>50000099.985687003</v>
       </c>
     </row>
-    <row r="685" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="685" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A685" s="1">
         <v>683</v>
       </c>
@@ -24311,7 +24312,7 @@
         <v>69.999988000000002</v>
       </c>
     </row>
-    <row r="686" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="686" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A686" s="1">
         <v>684</v>
       </c>
@@ -24337,7 +24338,7 @@
         <v>99.786107000000001</v>
       </c>
     </row>
-    <row r="687" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="687" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A687" s="1">
         <v>685</v>
       </c>
@@ -24363,7 +24364,7 @@
         <v>204.48878199999999</v>
       </c>
     </row>
-    <row r="688" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="688" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A688" s="1">
         <v>686</v>
       </c>
@@ -24386,7 +24387,7 @@
         <v>16400.630636000002</v>
       </c>
     </row>
-    <row r="689" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="689" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A689" s="1">
         <v>687</v>
       </c>
@@ -24412,7 +24413,7 @@
         <v>363.75236999999998</v>
       </c>
     </row>
-    <row r="690" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="690" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A690" s="1">
         <v>688</v>
       </c>
@@ -24438,7 +24439,7 @@
         <v>73.180655000000002</v>
       </c>
     </row>
-    <row r="691" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="691" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A691" s="1">
         <v>689</v>
       </c>
@@ -24458,7 +24459,7 @@
         <v>201.99</v>
       </c>
     </row>
-    <row r="692" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="692" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A692" s="1">
         <v>690</v>
       </c>
@@ -24484,7 +24485,7 @@
         <v>140000.00008999999</v>
       </c>
     </row>
-    <row r="693" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="693" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A693" s="1">
         <v>691</v>
       </c>
@@ -24507,7 +24508,7 @@
         <v>3248.2312510000002</v>
       </c>
     </row>
-    <row r="694" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="694" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A694" s="1">
         <v>692</v>
       </c>
@@ -24527,7 +24528,7 @@
         <v>14471.088833</v>
       </c>
     </row>
-    <row r="695" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="695" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A695" s="1">
         <v>693</v>
       </c>
@@ -24550,7 +24551,7 @@
         <v>88055.428065</v>
       </c>
     </row>
-    <row r="696" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="696" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A696" s="1">
         <v>694</v>
       </c>
@@ -24570,7 +24571,7 @@
         <v>431.572202</v>
       </c>
     </row>
-    <row r="697" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="697" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A697" s="1">
         <v>695</v>
       </c>
@@ -24596,7 +24597,7 @@
         <v>45.000549999999997</v>
       </c>
     </row>
-    <row r="698" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="698" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A698" s="1">
         <v>696</v>
       </c>
@@ -24622,7 +24623,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="699" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="699" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A699" s="1">
         <v>697</v>
       </c>
@@ -24648,7 +24649,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="700" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="700" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A700" s="1">
         <v>698</v>
       </c>
@@ -24674,7 +24675,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="701" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="701" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A701" s="1">
         <v>699</v>
       </c>
@@ -24700,7 +24701,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="702" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="702" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A702" s="1">
         <v>700</v>
       </c>
@@ -24726,7 +24727,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="703" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="703" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A703" s="1">
         <v>701</v>
       </c>
@@ -24752,7 +24753,7 @@
         <v>46.965170000000001</v>
       </c>
     </row>
-    <row r="704" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="704" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A704" s="1">
         <v>702</v>
       </c>
@@ -24778,7 +24779,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="705" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="705" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A705" s="1">
         <v>703</v>
       </c>
@@ -24804,7 +24805,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="706" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="706" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A706" s="1">
         <v>704</v>
       </c>
@@ -24830,7 +24831,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="707" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="707" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A707" s="1">
         <v>705</v>
       </c>
@@ -24856,7 +24857,7 @@
         <v>36.971200000000003</v>
       </c>
     </row>
-    <row r="708" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="708" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A708" s="1">
         <v>706</v>
       </c>
@@ -24879,7 +24880,7 @@
         <v>1711.8851279999999</v>
       </c>
     </row>
-    <row r="709" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="709" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A709" s="1">
         <v>707</v>
       </c>
@@ -24902,7 +24903,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="710" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="710" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A710" s="1">
         <v>708</v>
       </c>
@@ -24928,7 +24929,7 @@
         <v>20.044122000000002</v>
       </c>
     </row>
-    <row r="711" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="711" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A711" s="1">
         <v>709</v>
       </c>
@@ -24954,7 +24955,7 @@
         <v>227887.9425</v>
       </c>
     </row>
-    <row r="712" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="712" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A712" s="1">
         <v>710</v>
       </c>
@@ -24980,7 +24981,7 @@
         <v>587326.32765500003</v>
       </c>
     </row>
-    <row r="713" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="713" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A713" s="1">
         <v>711</v>
       </c>
@@ -25006,7 +25007,7 @@
         <v>8357.6072679999997</v>
       </c>
     </row>
-    <row r="714" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="714" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A714" s="1">
         <v>712</v>
       </c>
@@ -25029,7 +25030,7 @@
         <v>22.906593000000001</v>
       </c>
     </row>
-    <row r="715" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="715" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A715" s="1">
         <v>713</v>
       </c>
@@ -25052,7 +25053,7 @@
         <v>113458.889156</v>
       </c>
     </row>
-    <row r="716" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="716" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A716" s="1">
         <v>714</v>
       </c>
@@ -25075,7 +25076,7 @@
         <v>193.19781</v>
       </c>
     </row>
-    <row r="717" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="717" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A717" s="1">
         <v>715</v>
       </c>
@@ -25098,7 +25099,7 @@
         <v>163967.600909</v>
       </c>
     </row>
-    <row r="718" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="718" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A718" s="1">
         <v>716</v>
       </c>
@@ -25121,7 +25122,7 @@
         <v>29186.355325</v>
       </c>
     </row>
-    <row r="719" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="719" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A719" s="1">
         <v>717</v>
       </c>
@@ -25147,7 +25148,7 @@
         <v>25.003907999999999</v>
       </c>
     </row>
-    <row r="720" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="720" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A720" s="1">
         <v>718</v>
       </c>
@@ -25173,7 +25174,7 @@
         <v>257.46119499999998</v>
       </c>
     </row>
-    <row r="721" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="721" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A721" s="1">
         <v>719</v>
       </c>
@@ -25199,7 +25200,7 @@
         <v>39.999839999999999</v>
       </c>
     </row>
-    <row r="722" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="722" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A722" s="1">
         <v>720</v>
       </c>
@@ -25222,7 +25223,7 @@
         <v>135124.22508</v>
       </c>
     </row>
-    <row r="723" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="723" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A723" s="1">
         <v>721</v>
       </c>
@@ -25245,7 +25246,7 @@
         <v>127500.805763</v>
       </c>
     </row>
-    <row r="724" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="724" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A724" s="1">
         <v>722</v>
       </c>
@@ -25271,7 +25272,7 @@
         <v>1985841.5959099999</v>
       </c>
     </row>
-    <row r="725" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="725" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A725" s="1">
         <v>723</v>
       </c>
@@ -25297,7 +25298,7 @@
         <v>1940218.462569</v>
       </c>
     </row>
-    <row r="726" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="726" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A726" s="1">
         <v>724</v>
       </c>
@@ -25320,7 +25321,7 @@
         <v>113893.52256</v>
       </c>
     </row>
-    <row r="727" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="727" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A727" s="1">
         <v>725</v>
       </c>
@@ -25343,7 +25344,7 @@
         <v>490653.43441400002</v>
       </c>
     </row>
-    <row r="728" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="728" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A728" s="1">
         <v>726</v>
       </c>
@@ -25366,7 +25367,7 @@
         <v>20547.078054000001</v>
       </c>
     </row>
-    <row r="729" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="729" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A729" s="1">
         <v>727</v>
       </c>
@@ -25389,7 +25390,7 @@
         <v>10856.117448999999</v>
       </c>
     </row>
-    <row r="730" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="730" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A730" s="1">
         <v>728</v>
       </c>
@@ -25409,7 +25410,7 @@
         <v>610.40698499999996</v>
       </c>
     </row>
-    <row r="731" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="731" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A731" s="1">
         <v>729</v>
       </c>
@@ -25432,7 +25433,7 @@
         <v>463.86364500000002</v>
       </c>
     </row>
-    <row r="732" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="732" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A732" s="1">
         <v>730</v>
       </c>
@@ -25452,7 +25453,7 @@
         <v>20.767486000000002</v>
       </c>
     </row>
-    <row r="733" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="733" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A733" s="1">
         <v>731</v>
       </c>
@@ -25475,7 +25476,7 @@
         <v>6073.2805930000004</v>
       </c>
     </row>
-    <row r="734" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="734" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A734" s="1">
         <v>732</v>
       </c>
@@ -25498,7 +25499,7 @@
         <v>20.000066</v>
       </c>
     </row>
-    <row r="735" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="735" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A735" s="1">
         <v>733</v>
       </c>
@@ -25521,7 +25522,7 @@
         <v>5217140.0489560002</v>
       </c>
     </row>
-    <row r="736" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="736" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A736" s="1">
         <v>734</v>
       </c>
@@ -25544,7 +25545,7 @@
         <v>1361.5788889999999</v>
       </c>
     </row>
-    <row r="737" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="737" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A737" s="1">
         <v>735</v>
       </c>
@@ -25570,7 +25571,7 @@
         <v>7592.4413519999998</v>
       </c>
     </row>
-    <row r="738" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="738" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A738" s="1">
         <v>736</v>
       </c>
@@ -25596,7 +25597,7 @@
         <v>11352.187399</v>
       </c>
     </row>
-    <row r="739" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="739" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A739" s="1">
         <v>737</v>
       </c>
@@ -25619,7 +25620,7 @@
         <v>445487.95429700002</v>
       </c>
     </row>
-    <row r="740" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="740" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A740" s="1">
         <v>738</v>
       </c>
@@ -25642,7 +25643,7 @@
         <v>1522.021119</v>
       </c>
     </row>
-    <row r="741" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="741" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A741" s="1">
         <v>739</v>
       </c>
@@ -25662,7 +25663,7 @@
         <v>9184.6803369999998</v>
       </c>
     </row>
-    <row r="742" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="742" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A742" s="1">
         <v>740</v>
       </c>
@@ -25685,7 +25686,7 @@
         <v>19.999980000000001</v>
       </c>
     </row>
-    <row r="743" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="743" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A743" s="1">
         <v>741</v>
       </c>
@@ -25711,7 +25712,7 @@
         <v>128.70979299999999</v>
       </c>
     </row>
-    <row r="744" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="744" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A744" s="1">
         <v>742</v>
       </c>
@@ -25737,7 +25738,7 @@
         <v>32069.033463</v>
       </c>
     </row>
-    <row r="745" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="745" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A745" s="1">
         <v>743</v>
       </c>
@@ -25763,7 +25764,7 @@
         <v>2999980.0000100001</v>
       </c>
     </row>
-    <row r="746" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="746" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A746" s="1">
         <v>744</v>
       </c>
@@ -25783,7 +25784,7 @@
         <v>8923.1629109999994</v>
       </c>
     </row>
-    <row r="747" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="747" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A747" s="1">
         <v>745</v>
       </c>
@@ -25806,7 +25807,7 @@
         <v>613.13177700000006</v>
       </c>
     </row>
-    <row r="748" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="748" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A748" s="1">
         <v>746</v>
       </c>
@@ -25829,7 +25830,7 @@
         <v>23.606123</v>
       </c>
     </row>
-    <row r="749" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="749" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A749" s="1">
         <v>747</v>
       </c>
@@ -25852,7 +25853,7 @@
         <v>222.24476100000001</v>
       </c>
     </row>
-    <row r="750" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="750" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A750" s="1">
         <v>748</v>
       </c>
@@ -25875,7 +25876,7 @@
         <v>15324.986430000001</v>
       </c>
     </row>
-    <row r="751" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="751" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A751" s="1">
         <v>749</v>
       </c>
@@ -25898,7 +25899,7 @@
         <v>6713.1097730000001</v>
       </c>
     </row>
-    <row r="752" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="752" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A752" s="1">
         <v>750</v>
       </c>
@@ -25924,7 +25925,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="753" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="753" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A753" s="1">
         <v>751</v>
       </c>
@@ -25950,7 +25951,7 @@
         <v>736147.540301</v>
       </c>
     </row>
-    <row r="754" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="754" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A754" s="1">
         <v>752</v>
       </c>
@@ -25976,7 +25977,7 @@
         <v>5934.6055040000001</v>
       </c>
     </row>
-    <row r="755" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="755" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A755" s="1">
         <v>753</v>
       </c>
@@ -26002,7 +26003,7 @@
         <v>1357372.2875330001</v>
       </c>
     </row>
-    <row r="756" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="756" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A756" s="1">
         <v>754</v>
       </c>
@@ -26028,7 +26029,7 @@
         <v>852595.41981999995</v>
       </c>
     </row>
-    <row r="757" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="757" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A757" s="1">
         <v>755</v>
       </c>
@@ -26054,7 +26055,7 @@
         <v>72699.565992999997</v>
       </c>
     </row>
-    <row r="758" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="758" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A758" s="1">
         <v>756</v>
       </c>
@@ -26080,7 +26081,7 @@
         <v>148867.41052</v>
       </c>
     </row>
-    <row r="759" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="759" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A759" s="1">
         <v>757</v>
       </c>
@@ -26106,7 +26107,7 @@
         <v>1484781.706768</v>
       </c>
     </row>
-    <row r="760" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="760" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A760" s="1">
         <v>758</v>
       </c>
@@ -26132,7 +26133,7 @@
         <v>231592.64417000001</v>
       </c>
     </row>
-    <row r="761" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="761" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A761" s="1">
         <v>759</v>
       </c>
@@ -26158,7 +26159,7 @@
         <v>15702.516075</v>
       </c>
     </row>
-    <row r="762" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="762" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A762" s="1">
         <v>760</v>
       </c>
@@ -26184,7 +26185,7 @@
         <v>441975.454929</v>
       </c>
     </row>
-    <row r="763" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="763" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A763" s="1">
         <v>761</v>
       </c>
@@ -26207,7 +26208,7 @@
         <v>92272.457446</v>
       </c>
     </row>
-    <row r="764" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="764" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A764" s="1">
         <v>762</v>
       </c>
@@ -26230,7 +26231,7 @@
         <v>45.001289999999997</v>
       </c>
     </row>
-    <row r="765" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="765" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A765" s="1">
         <v>763</v>
       </c>
@@ -26256,7 +26257,7 @@
         <v>141663.69897200001</v>
       </c>
     </row>
-    <row r="766" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="766" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A766" s="1">
         <v>764</v>
       </c>
@@ -26282,7 +26283,7 @@
         <v>83414.316609999994</v>
       </c>
     </row>
-    <row r="767" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="767" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A767" s="1">
         <v>765</v>
       </c>
@@ -26305,7 +26306,7 @@
         <v>20.019976</v>
       </c>
     </row>
-    <row r="768" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="768" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A768" s="1">
         <v>766</v>
       </c>
@@ -26328,7 +26329,7 @@
         <v>11791.633349</v>
       </c>
     </row>
-    <row r="769" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="769" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A769" s="1">
         <v>767</v>
       </c>
@@ -26354,7 +26355,7 @@
         <v>116.95930799999999</v>
       </c>
     </row>
-    <row r="770" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="770" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A770" s="1">
         <v>768</v>
       </c>
@@ -26380,7 +26381,7 @@
         <v>783.43937900000003</v>
       </c>
     </row>
-    <row r="771" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="771" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A771" s="1">
         <v>769</v>
       </c>
@@ -26403,7 +26404,7 @@
         <v>1675.926819</v>
       </c>
     </row>
-    <row r="772" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="772" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A772" s="1">
         <v>770</v>
       </c>
@@ -26426,7 +26427,7 @@
         <v>19.989999999999998</v>
       </c>
     </row>
-    <row r="773" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="773" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A773" s="1">
         <v>771</v>
       </c>
@@ -26449,7 +26450,7 @@
         <v>135763.50442400001</v>
       </c>
     </row>
-    <row r="774" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="774" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A774" s="1">
         <v>772</v>
       </c>
@@ -26472,7 +26473,7 @@
         <v>134.99989199999999</v>
       </c>
     </row>
-    <row r="775" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="775" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A775" s="1">
         <v>773</v>
       </c>
@@ -26498,7 +26499,7 @@
         <v>237410.74454300001</v>
       </c>
     </row>
-    <row r="776" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="776" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A776" s="1">
         <v>774</v>
       </c>
@@ -26524,7 +26525,7 @@
         <v>4912804.0218519997</v>
       </c>
     </row>
-    <row r="777" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="777" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A777" s="1">
         <v>775</v>
       </c>
@@ -26547,7 +26548,7 @@
         <v>34321.810593000002</v>
       </c>
     </row>
-    <row r="778" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="778" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A778" s="1">
         <v>776</v>
       </c>
@@ -26573,7 +26574,7 @@
         <v>238894.00970900001</v>
       </c>
     </row>
-    <row r="779" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="779" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A779" s="1">
         <v>777</v>
       </c>
@@ -26599,7 +26600,7 @@
         <v>141386.118861</v>
       </c>
     </row>
-    <row r="780" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="780" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A780" s="1">
         <v>778</v>
       </c>
@@ -26622,7 +26623,7 @@
         <v>19.999987999999998</v>
       </c>
     </row>
-    <row r="781" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="781" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A781" s="1">
         <v>779</v>
       </c>
@@ -26645,7 +26646,7 @@
         <v>22762.3753</v>
       </c>
     </row>
-    <row r="782" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="782" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A782" s="1">
         <v>780</v>
       </c>
@@ -26671,7 +26672,7 @@
         <v>6117793.0421040002</v>
       </c>
     </row>
-    <row r="783" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="783" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A783" s="1">
         <v>781</v>
       </c>
@@ -26697,7 +26698,7 @@
         <v>1773859.255539</v>
       </c>
     </row>
-    <row r="784" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="784" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A784" s="1">
         <v>782</v>
       </c>
@@ -26720,7 +26721,7 @@
         <v>846.53630399999997</v>
       </c>
     </row>
-    <row r="785" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="785" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A785" s="1">
         <v>783</v>
       </c>
@@ -26746,7 +26747,7 @@
         <v>1522.1280730000001</v>
       </c>
     </row>
-    <row r="786" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="786" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A786" s="1">
         <v>784</v>
       </c>
@@ -26772,7 +26773,7 @@
         <v>4088.2548390000002</v>
       </c>
     </row>
-    <row r="787" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="787" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A787" s="1">
         <v>785</v>
       </c>
@@ -26795,7 +26796,7 @@
         <v>123364.727885</v>
       </c>
     </row>
-    <row r="788" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="788" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A788" s="1">
         <v>786</v>
       </c>
@@ -26818,7 +26819,7 @@
         <v>97701.836700999993</v>
       </c>
     </row>
-    <row r="789" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="789" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A789" s="1">
         <v>787</v>
       </c>
@@ -26841,7 +26842,7 @@
         <v>8465.6437700000006</v>
       </c>
     </row>
-    <row r="790" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="790" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A790" s="1">
         <v>788</v>
       </c>
@@ -26867,7 +26868,7 @@
         <v>2720.6618600000002</v>
       </c>
     </row>
-    <row r="791" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="791" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A791" s="1">
         <v>789</v>
       </c>
@@ -26890,7 +26891,7 @@
         <v>31244.045340000001</v>
       </c>
     </row>
-    <row r="792" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="792" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A792" s="1">
         <v>790</v>
       </c>
@@ -26916,7 +26917,7 @@
         <v>690999.999908</v>
       </c>
     </row>
-    <row r="793" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="793" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A793" s="1">
         <v>791</v>
       </c>
@@ -26942,7 +26943,7 @@
         <v>36.000076</v>
       </c>
     </row>
-    <row r="794" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="794" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A794" s="1">
         <v>792</v>
       </c>
@@ -26968,7 +26969,7 @@
         <v>20.99982</v>
       </c>
     </row>
-    <row r="795" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="795" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A795" s="1">
         <v>793</v>
       </c>
@@ -26994,7 +26995,7 @@
         <v>20.002566000000002</v>
       </c>
     </row>
-    <row r="796" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="796" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A796" s="1">
         <v>794</v>
       </c>
@@ -27020,7 +27021,7 @@
         <v>19.994308</v>
       </c>
     </row>
-    <row r="797" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="797" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A797" s="1">
         <v>795</v>
       </c>
@@ -27046,7 +27047,7 @@
         <v>24.999963999999999</v>
       </c>
     </row>
-    <row r="798" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="798" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A798" s="1">
         <v>796</v>
       </c>
@@ -27066,7 +27067,7 @@
         <v>40.607101</v>
       </c>
     </row>
-    <row r="799" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="799" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A799" s="1">
         <v>797</v>
       </c>
@@ -27092,7 +27093,7 @@
         <v>334.30149299999999</v>
       </c>
     </row>
-    <row r="800" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="800" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A800" s="1">
         <v>798</v>
       </c>
@@ -27115,7 +27116,7 @@
         <v>26.968631999999999</v>
       </c>
     </row>
-    <row r="801" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="801" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A801" s="1">
         <v>799</v>
       </c>
@@ -27141,7 +27142,7 @@
         <v>341.64232399999997</v>
       </c>
     </row>
-    <row r="802" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="802" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A802" s="1">
         <v>800</v>
       </c>
@@ -27161,7 +27162,7 @@
         <v>73.380953000000005</v>
       </c>
     </row>
-    <row r="803" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="803" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A803" s="1">
         <v>801</v>
       </c>
@@ -27184,7 +27185,7 @@
         <v>22475.946518000001</v>
       </c>
     </row>
-    <row r="804" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="804" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A804" s="1">
         <v>802</v>
       </c>
@@ -27207,7 +27208,7 @@
         <v>34.702568999999997</v>
       </c>
     </row>
-    <row r="805" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="805" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A805" s="1">
         <v>803</v>
       </c>
@@ -27233,7 +27234,7 @@
         <v>29.605889999999999</v>
       </c>
     </row>
-    <row r="806" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="806" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A806" s="1">
         <v>804</v>
       </c>
@@ -27259,7 +27260,7 @@
         <v>61.82929</v>
       </c>
     </row>
-    <row r="807" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="807" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A807" s="1">
         <v>805</v>
       </c>
@@ -27285,7 +27286,7 @@
         <v>1425.9919729999999</v>
       </c>
     </row>
-    <row r="808" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="808" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A808" s="1">
         <v>806</v>
       </c>
@@ -27311,7 +27312,7 @@
         <v>259.71202399999999</v>
       </c>
     </row>
-    <row r="809" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="809" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A809" s="1">
         <v>807</v>
       </c>
@@ -27337,7 +27338,7 @@
         <v>232.43438699999999</v>
       </c>
     </row>
-    <row r="810" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="810" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A810" s="1">
         <v>808</v>
       </c>
@@ -27363,7 +27364,7 @@
         <v>57.596055</v>
       </c>
     </row>
-    <row r="811" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="811" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A811" s="1">
         <v>809</v>
       </c>
@@ -27389,7 +27390,7 @@
         <v>220.63689299999999</v>
       </c>
     </row>
-    <row r="812" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="812" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A812" s="1">
         <v>810</v>
       </c>
@@ -27415,7 +27416,7 @@
         <v>228.20528400000001</v>
       </c>
     </row>
-    <row r="813" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="813" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A813" s="1">
         <v>811</v>
       </c>
@@ -27441,7 +27442,7 @@
         <v>545.17706199999998</v>
       </c>
     </row>
-    <row r="814" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="814" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A814" s="1">
         <v>812</v>
       </c>
@@ -27467,7 +27468,7 @@
         <v>123.132372</v>
       </c>
     </row>
-    <row r="815" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="815" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A815" s="1">
         <v>813</v>
       </c>
@@ -27493,7 +27494,7 @@
         <v>305.25895300000002</v>
       </c>
     </row>
-    <row r="816" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="816" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A816" s="1">
         <v>814</v>
       </c>
@@ -27519,7 +27520,7 @@
         <v>156.353476</v>
       </c>
     </row>
-    <row r="817" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="817" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A817" s="1">
         <v>815</v>
       </c>
@@ -27545,7 +27546,7 @@
         <v>296.85331200000002</v>
       </c>
     </row>
-    <row r="818" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="818" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A818" s="1">
         <v>816</v>
       </c>
@@ -27571,7 +27572,7 @@
         <v>459.228836</v>
       </c>
     </row>
-    <row r="819" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="819" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A819" s="1">
         <v>817</v>
       </c>
@@ -27594,7 +27595,7 @@
         <v>42.351536000000003</v>
       </c>
     </row>
-    <row r="820" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="820" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A820" s="1">
         <v>818</v>
       </c>
@@ -27617,7 +27618,7 @@
         <v>341.334812</v>
       </c>
     </row>
-    <row r="821" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="821" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A821" s="1">
         <v>819</v>
       </c>
@@ -27640,7 +27641,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="822" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="822" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A822" s="1">
         <v>820</v>
       </c>
@@ -27663,7 +27664,7 @@
         <v>29.123594000000001</v>
       </c>
     </row>
-    <row r="823" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="823" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A823" s="1">
         <v>821</v>
       </c>
@@ -27686,7 +27687,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="824" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="824" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A824" s="1">
         <v>822</v>
       </c>
@@ -27709,7 +27710,7 @@
         <v>20.773985</v>
       </c>
     </row>
-    <row r="825" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="825" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A825" s="1">
         <v>823</v>
       </c>
@@ -27732,7 +27733,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="826" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="826" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A826" s="1">
         <v>824</v>
       </c>
@@ -27755,7 +27756,7 @@
         <v>20.611177999999999</v>
       </c>
     </row>
-    <row r="827" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="827" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A827" s="1">
         <v>825</v>
       </c>
@@ -27778,7 +27779,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="828" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="828" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A828" s="1">
         <v>826</v>
       </c>
@@ -27801,7 +27802,7 @@
         <v>60.179344999999998</v>
       </c>
     </row>
-    <row r="829" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="829" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A829" s="1">
         <v>827</v>
       </c>
@@ -27824,7 +27825,7 @@
         <v>368230.35244599998</v>
       </c>
     </row>
-    <row r="830" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="830" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A830" s="1">
         <v>828</v>
       </c>
@@ -27847,7 +27848,7 @@
         <v>4870193.0703959996</v>
       </c>
     </row>
-    <row r="831" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="831" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A831" s="1">
         <v>829</v>
       </c>
@@ -27870,7 +27871,7 @@
         <v>265784.87387700001</v>
       </c>
     </row>
-    <row r="832" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="832" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A832" s="1">
         <v>830</v>
       </c>
@@ -27893,7 +27894,7 @@
         <v>95.229134999999999</v>
       </c>
     </row>
-    <row r="833" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="833" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A833" s="1">
         <v>831</v>
       </c>
@@ -27913,7 +27914,7 @@
         <v>300.71982100000002</v>
       </c>
     </row>
-    <row r="834" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="834" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A834" s="1">
         <v>832</v>
       </c>
@@ -27939,7 +27940,7 @@
         <v>9148355.137929</v>
       </c>
     </row>
-    <row r="835" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="835" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A835" s="1">
         <v>833</v>
       </c>
@@ -27965,7 +27966,7 @@
         <v>813326.09697499999</v>
       </c>
     </row>
-    <row r="836" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="836" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A836" s="1">
         <v>834</v>
       </c>
@@ -27991,7 +27992,7 @@
         <v>2147075.4129169998</v>
       </c>
     </row>
-    <row r="837" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="837" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A837" s="1">
         <v>835</v>
       </c>
@@ -28017,7 +28018,7 @@
         <v>5334.1294369999996</v>
       </c>
     </row>
-    <row r="838" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="838" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A838" s="1">
         <v>836</v>
       </c>
@@ -28043,7 +28044,7 @@
         <v>45.917565000000003</v>
       </c>
     </row>
-    <row r="839" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="839" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A839" s="1">
         <v>837</v>
       </c>
@@ -28069,7 +28070,7 @@
         <v>20.006254999999999</v>
       </c>
     </row>
-    <row r="840" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="840" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A840" s="1">
         <v>838</v>
       </c>
@@ -28095,7 +28096,7 @@
         <v>20.003647999999998</v>
       </c>
     </row>
-    <row r="841" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="841" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A841" s="1">
         <v>839</v>
       </c>
@@ -28118,7 +28119,7 @@
         <v>28.504342999999999</v>
       </c>
     </row>
-    <row r="842" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="842" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A842" s="1">
         <v>840</v>
       </c>
@@ -28138,7 +28139,7 @@
         <v>19.99999</v>
       </c>
     </row>
-    <row r="843" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="843" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A843" s="1">
         <v>841</v>
       </c>
@@ -28164,7 +28165,7 @@
         <v>42.079033000000003</v>
       </c>
     </row>
-    <row r="844" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="844" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A844" s="1">
         <v>842</v>
       </c>
@@ -28190,7 +28191,7 @@
         <v>432.09988900000002</v>
       </c>
     </row>
-    <row r="845" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="845" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A845" s="1">
         <v>843</v>
       </c>
@@ -28216,7 +28217,7 @@
         <v>1923331.0493709999</v>
       </c>
     </row>
-    <row r="846" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="846" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A846" s="1">
         <v>844</v>
       </c>
@@ -28242,7 +28243,7 @@
         <v>4000.1631090000001</v>
       </c>
     </row>
-    <row r="847" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="847" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A847" s="1">
         <v>845</v>
       </c>
@@ -28268,7 +28269,7 @@
         <v>1190559984.1943381</v>
       </c>
     </row>
-    <row r="848" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="848" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A848" s="1">
         <v>846</v>
       </c>
@@ -28294,7 +28295,7 @@
         <v>32387455.187118001</v>
       </c>
     </row>
-    <row r="849" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="849" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A849" s="1">
         <v>847</v>
       </c>
@@ -28320,7 +28321,7 @@
         <v>29.786463000000001</v>
       </c>
     </row>
-    <row r="850" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="850" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A850" s="1">
         <v>848</v>
       </c>
@@ -28343,7 +28344,7 @@
         <v>15763.347994</v>
       </c>
     </row>
-    <row r="851" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="851" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A851" s="1">
         <v>849</v>
       </c>
@@ -28369,7 +28370,7 @@
         <v>28.657364000000001</v>
       </c>
     </row>
-    <row r="852" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="852" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A852" s="1">
         <v>850</v>
       </c>
@@ -28395,7 +28396,7 @@
         <v>261.97997900000001</v>
       </c>
     </row>
-    <row r="853" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="853" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A853" s="1">
         <v>851</v>
       </c>
@@ -28418,7 +28419,7 @@
         <v>556651.11115400004</v>
       </c>
     </row>
-    <row r="854" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="854" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A854" s="1">
         <v>852</v>
       </c>
@@ -28441,7 +28442,7 @@
         <v>1511225.5131089999</v>
       </c>
     </row>
-    <row r="855" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="855" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A855" s="1">
         <v>853</v>
       </c>
@@ -28464,7 +28465,7 @@
         <v>125832.43420800001</v>
       </c>
     </row>
-    <row r="856" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="856" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A856" s="1">
         <v>854</v>
       </c>
@@ -28487,7 +28488,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="857" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="857" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A857" s="1">
         <v>855</v>
       </c>
@@ -28510,7 +28511,7 @@
         <v>20.112169000000002</v>
       </c>
     </row>
-    <row r="858" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="858" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A858" s="1">
         <v>856</v>
       </c>
@@ -28533,7 +28534,7 @@
         <v>468062.17766799999</v>
       </c>
     </row>
-    <row r="859" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="859" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A859" s="1">
         <v>857</v>
       </c>
@@ -28559,7 +28560,7 @@
         <v>20.099481999999998</v>
       </c>
     </row>
-    <row r="860" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="860" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A860" s="1">
         <v>858</v>
       </c>
@@ -28582,7 +28583,7 @@
         <v>20.009988</v>
       </c>
     </row>
-    <row r="861" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="861" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A861" s="1">
         <v>859</v>
       </c>
@@ -28605,7 +28606,7 @@
         <v>11367.547891</v>
       </c>
     </row>
-    <row r="862" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="862" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A862" s="1">
         <v>860</v>
       </c>
@@ -28628,7 +28629,7 @@
         <v>20.842683000000001</v>
       </c>
     </row>
-    <row r="863" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="863" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A863" s="1">
         <v>861</v>
       </c>
@@ -28651,7 +28652,7 @@
         <v>855.12283500000001</v>
       </c>
     </row>
-    <row r="864" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="864" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A864" s="1">
         <v>862</v>
       </c>
@@ -28674,7 +28675,7 @@
         <v>25.644983</v>
       </c>
     </row>
-    <row r="865" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="865" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A865" s="1">
         <v>863</v>
       </c>
@@ -28697,7 +28698,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="866" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="866" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A866" s="1">
         <v>864</v>
       </c>
@@ -28720,7 +28721,7 @@
         <v>20.031178000000001</v>
       </c>
     </row>
-    <row r="867" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="867" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A867" s="1">
         <v>865</v>
       </c>
@@ -28743,7 +28744,7 @@
         <v>27.709852000000001</v>
       </c>
     </row>
-    <row r="868" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="868" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A868" s="1">
         <v>866</v>
       </c>
@@ -28769,7 +28770,7 @@
         <v>124.124082</v>
       </c>
     </row>
-    <row r="869" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="869" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A869" s="1">
         <v>867</v>
       </c>
@@ -28792,7 +28793,7 @@
         <v>2494.5066660000002</v>
       </c>
     </row>
-    <row r="870" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="870" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A870" s="1">
         <v>868</v>
       </c>
@@ -28815,7 +28816,7 @@
         <v>32.978541999999997</v>
       </c>
     </row>
-    <row r="871" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="871" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A871" s="1">
         <v>869</v>
       </c>
@@ -28838,7 +28839,7 @@
         <v>104.04366899999999</v>
       </c>
     </row>
-    <row r="872" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="872" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A872" s="1">
         <v>870</v>
       </c>
@@ -28865,7 +28866,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H872"/>
+  <autoFilter ref="A1:H872">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Binance"/>
+        <filter val="Binance US"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/data/List of well-known Names used to identify accounts.xlsx
+++ b/data/List of well-known Names used to identify accounts.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6900"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -7592,7 +7592,7 @@
   <dimension ref="A1:H872"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G875" sqref="G875"/>
+      <selection activeCell="C876" sqref="C876"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
